--- a/uvispace/uvisensor/resources/datatemp/masterfile4.xlsx
+++ b/uvispace/uvisensor/resources/datatemp/masterfile4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
   <si>
     <t>Date and Time</t>
   </si>
@@ -695,6 +695,390 @@
   </si>
   <si>
     <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/08_06_2017_483-L246-R160.xlsx'#$Sheet.K68</t>
+  </si>
+  <si>
+    <t>09_06_2017_484</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_484-L160-R160.xlsx'#$Sheet.K76</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_484-L160-R160.xlsx'#$Sheet.K77</t>
+  </si>
+  <si>
+    <t>09_06_2017_485</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_485-L160-R160.xlsx'#$Sheet.K64</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_485-L160-R160.xlsx'#$Sheet.K65</t>
+  </si>
+  <si>
+    <t>09_06_2017_486</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_486-L160-R160.xlsx'#$Sheet.K72</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_486-L160-R160.xlsx'#$Sheet.K73</t>
+  </si>
+  <si>
+    <t>09_06_2017_487</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_487-L190-R236.xlsx'#$Sheet.K66</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_487-L190-R236.xlsx'#$Sheet.K67</t>
+  </si>
+  <si>
+    <t>09_06_2017_488</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_488-L190-R236.xlsx'#$Sheet.K73</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_488-L190-R236.xlsx'#$Sheet.K74</t>
+  </si>
+  <si>
+    <t>09_06_2017_489</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_489-L190-R236.xlsx'#$Sheet.K69</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_489-L190-R236.xlsx'#$Sheet.K70</t>
+  </si>
+  <si>
+    <t>09_06_2017_490</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_490-L190-R236.xlsx'#$Sheet.K62</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_490-L190-R236.xlsx'#$Sheet.K63</t>
+  </si>
+  <si>
+    <t>09_06_2017_491</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_491-L255-R255.xlsx'#$Sheet.K21</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_491-L255-R255.xlsx'#$Sheet.K22</t>
+  </si>
+  <si>
+    <t>09_06_2017_492</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_492-L255-R255.xlsx'#$Sheet.K33</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_492-L255-R255.xlsx'#$Sheet.K34</t>
+  </si>
+  <si>
+    <t>09_06_2017_493</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_493-L255-R255.xlsx'#$Sheet.K58</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_493-L255-R255.xlsx'#$Sheet.K59</t>
+  </si>
+  <si>
+    <t>09_06_2017_494</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_494-L255-R255.xlsx'#$Sheet.K59</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_494-L255-R255.xlsx'#$Sheet.K60</t>
+  </si>
+  <si>
+    <t>09_06_2017_495</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_495-L224-R188.xlsx'#$Sheet.K60</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_495-L224-R188.xlsx'#$Sheet.K61</t>
+  </si>
+  <si>
+    <t>09_06_2017_496</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_496-L224-R188.xlsx'#$Sheet.K102</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_496-L224-R188.xlsx'#$Sheet.K103</t>
+  </si>
+  <si>
+    <t>09_06_2017_497</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_497-L224-R188.xlsx'#$Sheet.K57</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_497-L224-R188.xlsx'#$Sheet.K58</t>
+  </si>
+  <si>
+    <t>09_06_2017_498</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_498-L224-R188.xlsx'#$Sheet.K58</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_498-L224-R188.xlsx'#$Sheet.K59</t>
+  </si>
+  <si>
+    <t>09_06_2017_499</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_499-L224-R188.xlsx'#$Sheet.K49</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_499-L224-R188.xlsx'#$Sheet.K50</t>
+  </si>
+  <si>
+    <t>09_06_2017_500</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_500-L224-R188.xlsx'#$Sheet.K57</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_500-L224-R188.xlsx'#$Sheet.K58</t>
+  </si>
+  <si>
+    <t>09_06_2017_501</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_501-L165-R213.xlsx'#$Sheet.K65</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_501-L165-R213.xlsx'#$Sheet.K66</t>
+  </si>
+  <si>
+    <t>09_06_2017_502</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_502-L165-R213.xlsx'#$Sheet.K69</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_502-L165-R213.xlsx'#$Sheet.K70</t>
+  </si>
+  <si>
+    <t>09_06_2017_503</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_503-L165-R213.xlsx'#$Sheet.K73</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_503-L165-R213.xlsx'#$Sheet.K74</t>
+  </si>
+  <si>
+    <t>09_06_2017_504</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_504-L221-R170.xlsx'#$Sheet.K48</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_504-L221-R170.xlsx'#$Sheet.K49</t>
+  </si>
+  <si>
+    <t>09_06_2017_505</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_505-L221-R170.xlsx'#$Sheet.K24</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_505-L221-R170.xlsx'#$Sheet.K25</t>
+  </si>
+  <si>
+    <t>09_06_2017_506</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_506-L221-R170.xlsx'#$Sheet.K35</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_506-L221-R170.xlsx'#$Sheet.K36</t>
+  </si>
+  <si>
+    <t>09_06_2017_507</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_507-L221-R170.xlsx'#$Sheet.K65</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_507-L221-R170.xlsx'#$Sheet.K66</t>
+  </si>
+  <si>
+    <t>09_06_2017_508</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_508-L221-R170.xlsx'#$Sheet.K58</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_508-L221-R170.xlsx'#$Sheet.K59</t>
+  </si>
+  <si>
+    <t>09_06_2017_509</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_509-L221-R170.xlsx'#$Sheet.K76</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_509-L221-R170.xlsx'#$Sheet.K77</t>
+  </si>
+  <si>
+    <t>09_06_2017_510</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_510-L221-R170.xlsx'#$Sheet.K55</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_510-L221-R170.xlsx'#$Sheet.K56</t>
+  </si>
+  <si>
+    <t>09_06_2017_511</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_511-L221-R170.xlsx'#$Sheet.K64</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_511-L221-R170.xlsx'#$Sheet.K65</t>
+  </si>
+  <si>
+    <t>09_06_2017_512</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_512-L221-R170.xlsx'#$Sheet.K48</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_512-L221-R170.xlsx'#$Sheet.K49</t>
+  </si>
+  <si>
+    <t>09_06_2017_513</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_513-L203-R202.xlsx'#$Sheet.K58</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_513-L203-R202.xlsx'#$Sheet.K59</t>
+  </si>
+  <si>
+    <t>09_06_2017_514</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_514-L203-R202.xlsx'#$Sheet.K73</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_514-L203-R202.xlsx'#$Sheet.K74</t>
+  </si>
+  <si>
+    <t>09_06_2017_515</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_515-L203-R202.xlsx'#$Sheet.K55</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_515-L203-R202.xlsx'#$Sheet.K56</t>
+  </si>
+  <si>
+    <t>09_06_2017_516</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_516-L203-R202.xlsx'#$Sheet.K111</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_516-L203-R202.xlsx'#$Sheet.K112</t>
+  </si>
+  <si>
+    <t>09_06_2017_517</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_517-L203-R202.xlsx'#$Sheet.K38</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_517-L203-R202.xlsx'#$Sheet.K39</t>
+  </si>
+  <si>
+    <t>09_06_2017_518</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_518-L160-R247.xlsx'#$Sheet.K74</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_518-L160-R247.xlsx'#$Sheet.K75</t>
+  </si>
+  <si>
+    <t>09_06_2017_519</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_519-L160-R247.xlsx'#$Sheet.K73</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_519-L160-R247.xlsx'#$Sheet.K74</t>
+  </si>
+  <si>
+    <t>09_06_2017_520</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_520-L160-R247.xlsx'#$Sheet.K70</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_520-L160-R247.xlsx'#$Sheet.K71</t>
+  </si>
+  <si>
+    <t>09_06_2017_521</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_521-L160-R247.xlsx'#$Sheet.K71</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_521-L160-R247.xlsx'#$Sheet.K72</t>
+  </si>
+  <si>
+    <t>09_06_2017_522</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_522-L255-R160.xlsx'#$Sheet.K72</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_522-L255-R160.xlsx'#$Sheet.K73</t>
+  </si>
+  <si>
+    <t>09_06_2017_523</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_523-L255-R160.xlsx'#$Sheet.K77</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_523-L255-R160.xlsx'#$Sheet.K78</t>
+  </si>
+  <si>
+    <t>09_06_2017_524</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_524-L255-R160.xlsx'#$Sheet.K70</t>
+  </si>
+  <si>
+    <t>'file:///home/jorge/UviSpace/uvispace/uvisensor/datatemp/09_06_2017_524-L255-R160.xlsx'#$Sheet.K71</t>
   </si>
 </sst>
 </file>
@@ -803,7 +1187,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -832,6 +1216,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1151,27 +1547,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" windowProtection="1" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
       <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="L15" activeCellId="0" pane="bottomLeft" sqref="L15"/>
+      <selection activeCell="C95" activeCellId="0" pane="bottomLeft" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="18"/>
     <col customWidth="1" max="7" min="2" style="1" width="10"/>
-    <col customWidth="1" max="3" min="3" style="10" width="10"/>
-    <col customWidth="1" max="4" min="4" style="10" width="10"/>
-    <col customWidth="1" max="5" min="5" style="10" width="10"/>
-    <col customWidth="1" max="6" min="6" style="10" width="10"/>
-    <col customWidth="1" max="7" min="7" style="10" width="10"/>
+    <col customWidth="1" max="3" min="3" style="14" width="10"/>
+    <col customWidth="1" max="4" min="4" style="14" width="10"/>
+    <col customWidth="1" max="5" min="5" style="14" width="10"/>
+    <col customWidth="1" max="6" min="6" style="14" width="10"/>
+    <col customWidth="1" max="7" min="7" style="14" width="10"/>
     <col customWidth="1" max="1025" min="8" style="1" width="8.534412955465591"/>
   </cols>
   <sheetData>
-    <row customHeight="1" s="10" r="1" ht="13.8" spans="1:8">
+    <row customHeight="1" s="14" r="1" ht="13.8" spans="1:8">
       <c s="2" r="A1" t="s">
         <v>0</v>
       </c>
@@ -1197,14 +1593,14 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="2" ht="13.8" spans="1:8">
-      <c s="4" r="A2" t="s">
+    <row customHeight="1" s="14" r="2" ht="13.8" spans="1:8">
+      <c s="12" r="A2" t="s">
         <v>7</v>
       </c>
-      <c s="4" r="B2" t="s">
+      <c s="12" r="B2" t="s">
         <v>8</v>
       </c>
-      <c s="4" r="C2" t="s">
+      <c s="12" r="C2" t="s">
         <v>8</v>
       </c>
       <c s="5" r="D2">
@@ -1215,24 +1611,24 @@
         <f>INDIRECT(G2)</f>
         <v/>
       </c>
-      <c s="6" r="F2" t="s">
+      <c s="13" r="F2" t="s">
         <v>9</v>
       </c>
-      <c s="6" r="G2" t="s">
+      <c s="13" r="G2" t="s">
         <v>10</v>
       </c>
       <c s="1" r="H2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="3" ht="13.8" spans="1:8">
-      <c s="7" r="A3" t="s">
+    <row customHeight="1" s="14" r="3" ht="13.8" spans="1:8">
+      <c s="10" r="A3" t="s">
         <v>11</v>
       </c>
-      <c s="7" r="B3" t="s">
+      <c s="10" r="B3" t="s">
         <v>8</v>
       </c>
-      <c s="7" r="C3" t="s">
+      <c s="10" r="C3" t="s">
         <v>8</v>
       </c>
       <c s="8" r="D3">
@@ -1243,24 +1639,24 @@
         <f>INDIRECT(G3)</f>
         <v/>
       </c>
-      <c s="9" r="F3" t="s">
+      <c s="11" r="F3" t="s">
         <v>12</v>
       </c>
-      <c s="9" r="G3" t="s">
+      <c s="11" r="G3" t="s">
         <v>13</v>
       </c>
       <c s="1" r="H3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="4" ht="13.8" spans="1:8">
-      <c s="4" r="A4" t="s">
+    <row customHeight="1" s="14" r="4" ht="13.8" spans="1:8">
+      <c s="12" r="A4" t="s">
         <v>14</v>
       </c>
-      <c s="4" r="B4" t="s">
+      <c s="12" r="B4" t="s">
         <v>8</v>
       </c>
-      <c s="4" r="C4" t="s">
+      <c s="12" r="C4" t="s">
         <v>8</v>
       </c>
       <c s="5" r="D4">
@@ -1271,24 +1667,24 @@
         <f>INDIRECT(G4)</f>
         <v/>
       </c>
-      <c s="6" r="F4" t="s">
+      <c s="13" r="F4" t="s">
         <v>15</v>
       </c>
-      <c s="6" r="G4" t="s">
+      <c s="13" r="G4" t="s">
         <v>16</v>
       </c>
       <c s="1" r="H4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="5" ht="13.8" spans="1:8">
-      <c s="7" r="A5" t="s">
+    <row customHeight="1" s="14" r="5" ht="13.8" spans="1:8">
+      <c s="10" r="A5" t="s">
         <v>17</v>
       </c>
-      <c s="7" r="B5" t="s">
+      <c s="10" r="B5" t="s">
         <v>8</v>
       </c>
-      <c s="7" r="C5" t="s">
+      <c s="10" r="C5" t="s">
         <v>8</v>
       </c>
       <c s="8" r="D5">
@@ -1299,24 +1695,24 @@
         <f>INDIRECT(G5)</f>
         <v/>
       </c>
-      <c s="9" r="F5" t="s">
+      <c s="11" r="F5" t="s">
         <v>18</v>
       </c>
-      <c s="9" r="G5" t="s">
+      <c s="11" r="G5" t="s">
         <v>19</v>
       </c>
       <c s="1" r="H5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="6" ht="13.8" spans="1:8">
-      <c s="4" r="A6" t="s">
+    <row customHeight="1" s="14" r="6" ht="13.8" spans="1:8">
+      <c s="12" r="A6" t="s">
         <v>20</v>
       </c>
-      <c s="4" r="B6" t="s">
+      <c s="12" r="B6" t="s">
         <v>21</v>
       </c>
-      <c s="4" r="C6" t="s">
+      <c s="12" r="C6" t="s">
         <v>21</v>
       </c>
       <c s="5" r="D6">
@@ -1327,24 +1723,24 @@
         <f>INDIRECT(G6)</f>
         <v/>
       </c>
-      <c s="6" r="F6" t="s">
+      <c s="13" r="F6" t="s">
         <v>22</v>
       </c>
-      <c s="6" r="G6" t="s">
+      <c s="13" r="G6" t="s">
         <v>23</v>
       </c>
       <c s="1" r="H6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="7" ht="13.8" spans="1:8">
-      <c s="7" r="A7" t="s">
+    <row customHeight="1" s="14" r="7" ht="13.8" spans="1:8">
+      <c s="10" r="A7" t="s">
         <v>24</v>
       </c>
-      <c s="7" r="B7" t="s">
+      <c s="10" r="B7" t="s">
         <v>25</v>
       </c>
-      <c s="7" r="C7" t="s">
+      <c s="10" r="C7" t="s">
         <v>26</v>
       </c>
       <c s="8" r="D7">
@@ -1355,24 +1751,24 @@
         <f>INDIRECT(G7)</f>
         <v/>
       </c>
-      <c s="9" r="F7" t="s">
+      <c s="11" r="F7" t="s">
         <v>27</v>
       </c>
-      <c s="9" r="G7" t="s">
+      <c s="11" r="G7" t="s">
         <v>28</v>
       </c>
       <c s="1" r="H7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="8" ht="13.8" spans="1:8">
-      <c s="4" r="A8" t="s">
+    <row customHeight="1" s="14" r="8" ht="13.8" spans="1:8">
+      <c s="12" r="A8" t="s">
         <v>29</v>
       </c>
-      <c s="4" r="B8" t="s">
+      <c s="12" r="B8" t="s">
         <v>25</v>
       </c>
-      <c s="4" r="C8" t="s">
+      <c s="12" r="C8" t="s">
         <v>26</v>
       </c>
       <c s="5" r="D8">
@@ -1383,24 +1779,24 @@
         <f>INDIRECT(G8)</f>
         <v/>
       </c>
-      <c s="6" r="F8" t="s">
+      <c s="13" r="F8" t="s">
         <v>30</v>
       </c>
-      <c s="6" r="G8" t="s">
+      <c s="13" r="G8" t="s">
         <v>31</v>
       </c>
       <c s="1" r="H8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="9" ht="13.8" spans="1:8">
-      <c s="7" r="A9" t="s">
+    <row customHeight="1" s="14" r="9" ht="13.8" spans="1:8">
+      <c s="10" r="A9" t="s">
         <v>32</v>
       </c>
-      <c s="7" r="B9" t="s">
+      <c s="10" r="B9" t="s">
         <v>25</v>
       </c>
-      <c s="7" r="C9" t="s">
+      <c s="10" r="C9" t="s">
         <v>26</v>
       </c>
       <c s="8" r="D9">
@@ -1411,24 +1807,24 @@
         <f>INDIRECT(G9)</f>
         <v/>
       </c>
-      <c s="9" r="F9" t="s">
+      <c s="11" r="F9" t="s">
         <v>33</v>
       </c>
-      <c s="9" r="G9" t="s">
+      <c s="11" r="G9" t="s">
         <v>34</v>
       </c>
       <c s="1" r="H9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="10" ht="13.8" spans="1:8">
-      <c s="4" r="A10" t="s">
+    <row customHeight="1" s="14" r="10" ht="13.8" spans="1:8">
+      <c s="12" r="A10" t="s">
         <v>35</v>
       </c>
-      <c s="4" r="B10" t="s">
+      <c s="12" r="B10" t="s">
         <v>25</v>
       </c>
-      <c s="4" r="C10" t="s">
+      <c s="12" r="C10" t="s">
         <v>26</v>
       </c>
       <c s="5" r="D10">
@@ -1439,24 +1835,24 @@
         <f>INDIRECT(G10)</f>
         <v/>
       </c>
-      <c s="6" r="F10" t="s">
+      <c s="13" r="F10" t="s">
         <v>36</v>
       </c>
-      <c s="6" r="G10" t="s">
+      <c s="13" r="G10" t="s">
         <v>37</v>
       </c>
       <c s="1" r="H10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="11" ht="13.8" spans="1:8">
-      <c s="7" r="A11" t="s">
+    <row customHeight="1" s="14" r="11" ht="13.8" spans="1:8">
+      <c s="10" r="A11" t="s">
         <v>38</v>
       </c>
-      <c s="7" r="B11" t="s">
+      <c s="10" r="B11" t="s">
         <v>39</v>
       </c>
-      <c s="7" r="C11" t="s">
+      <c s="10" r="C11" t="s">
         <v>39</v>
       </c>
       <c s="8" r="D11">
@@ -1467,24 +1863,24 @@
         <f>INDIRECT(G11)</f>
         <v/>
       </c>
-      <c s="9" r="F11" t="s">
+      <c s="11" r="F11" t="s">
         <v>40</v>
       </c>
-      <c s="9" r="G11" t="s">
+      <c s="11" r="G11" t="s">
         <v>41</v>
       </c>
       <c s="1" r="H11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="12" ht="13.8" spans="1:8">
-      <c s="4" r="A12" t="s">
+    <row customHeight="1" s="14" r="12" ht="13.8" spans="1:8">
+      <c s="12" r="A12" t="s">
         <v>42</v>
       </c>
-      <c s="4" r="B12" t="s">
+      <c s="12" r="B12" t="s">
         <v>39</v>
       </c>
-      <c s="4" r="C12" t="s">
+      <c s="12" r="C12" t="s">
         <v>39</v>
       </c>
       <c s="5" r="D12">
@@ -1495,24 +1891,24 @@
         <f>INDIRECT(G12)</f>
         <v/>
       </c>
-      <c s="6" r="F12" t="s">
+      <c s="13" r="F12" t="s">
         <v>43</v>
       </c>
-      <c s="6" r="G12" t="s">
+      <c s="13" r="G12" t="s">
         <v>44</v>
       </c>
       <c s="1" r="H12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="13" ht="13.8" spans="1:8">
-      <c s="7" r="A13" t="s">
+    <row customHeight="1" s="14" r="13" ht="13.8" spans="1:8">
+      <c s="10" r="A13" t="s">
         <v>45</v>
       </c>
-      <c s="7" r="B13" t="s">
+      <c s="10" r="B13" t="s">
         <v>46</v>
       </c>
-      <c s="7" r="C13" t="s">
+      <c s="10" r="C13" t="s">
         <v>46</v>
       </c>
       <c s="8" r="D13">
@@ -1523,24 +1919,24 @@
         <f>INDIRECT(G13)</f>
         <v/>
       </c>
-      <c s="9" r="F13" t="s">
+      <c s="11" r="F13" t="s">
         <v>47</v>
       </c>
-      <c s="9" r="G13" t="s">
+      <c s="11" r="G13" t="s">
         <v>48</v>
       </c>
       <c s="1" r="H13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="14" ht="13.8" spans="1:8">
-      <c s="4" r="A14" t="s">
+    <row customHeight="1" s="14" r="14" ht="13.8" spans="1:8">
+      <c s="12" r="A14" t="s">
         <v>49</v>
       </c>
-      <c s="4" r="B14" t="s">
+      <c s="12" r="B14" t="s">
         <v>46</v>
       </c>
-      <c s="4" r="C14" t="s">
+      <c s="12" r="C14" t="s">
         <v>46</v>
       </c>
       <c s="5" r="D14">
@@ -1551,24 +1947,24 @@
         <f>INDIRECT(G14)</f>
         <v/>
       </c>
-      <c s="6" r="F14" t="s">
+      <c s="13" r="F14" t="s">
         <v>50</v>
       </c>
-      <c s="6" r="G14" t="s">
+      <c s="13" r="G14" t="s">
         <v>51</v>
       </c>
       <c s="1" r="H14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="15" ht="13.8" spans="1:8">
-      <c s="7" r="A15" t="s">
+    <row customHeight="1" s="14" r="15" ht="13.8" spans="1:8">
+      <c s="10" r="A15" t="s">
         <v>52</v>
       </c>
-      <c s="7" r="B15" t="s">
+      <c s="10" r="B15" t="s">
         <v>46</v>
       </c>
-      <c s="7" r="C15" t="s">
+      <c s="10" r="C15" t="s">
         <v>46</v>
       </c>
       <c s="8" r="D15">
@@ -1579,24 +1975,24 @@
         <f>INDIRECT(G15)</f>
         <v/>
       </c>
-      <c s="9" r="F15" t="s">
+      <c s="11" r="F15" t="s">
         <v>53</v>
       </c>
-      <c s="9" r="G15" t="s">
+      <c s="11" r="G15" t="s">
         <v>54</v>
       </c>
       <c s="1" r="H15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="16" ht="13.8" spans="1:8">
-      <c s="4" r="A16" t="s">
+    <row customHeight="1" s="14" r="16" ht="13.8" spans="1:8">
+      <c s="12" r="A16" t="s">
         <v>55</v>
       </c>
-      <c s="4" r="B16" t="s">
+      <c s="12" r="B16" t="s">
         <v>56</v>
       </c>
-      <c s="4" r="C16" t="s">
+      <c s="12" r="C16" t="s">
         <v>57</v>
       </c>
       <c s="5" r="D16">
@@ -1607,24 +2003,24 @@
         <f>INDIRECT(G16)</f>
         <v/>
       </c>
-      <c s="6" r="F16" t="s">
+      <c s="13" r="F16" t="s">
         <v>58</v>
       </c>
-      <c s="6" r="G16" t="s">
+      <c s="13" r="G16" t="s">
         <v>59</v>
       </c>
       <c s="1" r="H16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="17" ht="13.8" spans="1:8">
-      <c s="7" r="A17" t="s">
+    <row customHeight="1" s="14" r="17" ht="13.8" spans="1:8">
+      <c s="10" r="A17" t="s">
         <v>60</v>
       </c>
-      <c s="7" r="B17" t="s">
+      <c s="10" r="B17" t="s">
         <v>56</v>
       </c>
-      <c s="7" r="C17" t="s">
+      <c s="10" r="C17" t="s">
         <v>57</v>
       </c>
       <c s="8" r="D17">
@@ -1635,24 +2031,24 @@
         <f>INDIRECT(G17)</f>
         <v/>
       </c>
-      <c s="9" r="F17" t="s">
+      <c s="11" r="F17" t="s">
         <v>61</v>
       </c>
-      <c s="9" r="G17" t="s">
+      <c s="11" r="G17" t="s">
         <v>62</v>
       </c>
       <c s="1" r="H17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="18" ht="13.8" spans="1:8">
-      <c s="4" r="A18" t="s">
+    <row customHeight="1" s="14" r="18" ht="13.8" spans="1:8">
+      <c s="12" r="A18" t="s">
         <v>63</v>
       </c>
-      <c s="4" r="B18" t="s">
+      <c s="12" r="B18" t="s">
         <v>56</v>
       </c>
-      <c s="4" r="C18" t="s">
+      <c s="12" r="C18" t="s">
         <v>57</v>
       </c>
       <c s="5" r="D18">
@@ -1663,24 +2059,24 @@
         <f>INDIRECT(G18)</f>
         <v/>
       </c>
-      <c s="6" r="F18" t="s">
+      <c s="13" r="F18" t="s">
         <v>64</v>
       </c>
-      <c s="6" r="G18" t="s">
+      <c s="13" r="G18" t="s">
         <v>65</v>
       </c>
       <c s="1" r="H18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="19" ht="13.8" spans="1:8">
-      <c s="7" r="A19" t="s">
+    <row customHeight="1" s="14" r="19" ht="13.8" spans="1:8">
+      <c s="10" r="A19" t="s">
         <v>66</v>
       </c>
-      <c s="7" r="B19" t="s">
+      <c s="10" r="B19" t="s">
         <v>67</v>
       </c>
-      <c s="7" r="C19" t="s">
+      <c s="10" r="C19" t="s">
         <v>68</v>
       </c>
       <c s="8" r="D19">
@@ -1691,24 +2087,24 @@
         <f>INDIRECT(G19)</f>
         <v/>
       </c>
-      <c s="9" r="F19" t="s">
+      <c s="11" r="F19" t="s">
         <v>69</v>
       </c>
-      <c s="9" r="G19" t="s">
+      <c s="11" r="G19" t="s">
         <v>70</v>
       </c>
       <c s="1" r="H19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" s="10" r="20" ht="13.8" spans="1:8">
-      <c s="4" r="A20" t="s">
+    <row customHeight="1" s="14" r="20" ht="13.8" spans="1:8">
+      <c s="12" r="A20" t="s">
         <v>71</v>
       </c>
-      <c s="4" r="B20" t="s">
+      <c s="12" r="B20" t="s">
         <v>67</v>
       </c>
-      <c s="4" r="C20" t="s">
+      <c s="12" r="C20" t="s">
         <v>68</v>
       </c>
       <c s="5" r="D20">
@@ -1719,1393 +2115,2475 @@
         <f>INDIRECT(G20)</f>
         <v/>
       </c>
-      <c s="6" r="F20" t="s">
+      <c s="13" r="F20" t="s">
         <v>72</v>
       </c>
-      <c s="6" r="G20" t="s">
+      <c s="13" r="G20" t="s">
         <v>73</v>
       </c>
       <c s="1" r="H20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c s="11" r="A21" t="s">
+    <row customHeight="1" s="14" r="21" ht="13.8" spans="1:8">
+      <c s="10" r="A21" t="s">
         <v>74</v>
       </c>
-      <c s="11" r="B21" t="s">
+      <c s="10" r="B21" t="s">
         <v>67</v>
       </c>
-      <c s="11" r="C21" t="s">
+      <c s="10" r="C21" t="s">
         <v>68</v>
       </c>
-      <c s="12" r="D21">
-        <f>INDIRECT(F21)
+      <c s="8" r="D21">
+        <f>INDIRECT(F21)</f>
+        <v/>
+      </c>
+      <c s="8" r="E21">
+        <f>INDIRECT(G21)</f>
+        <v/>
+      </c>
+      <c s="11" r="F21" t="s">
+        <v>75</v>
+      </c>
+      <c s="11" r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c s="1" r="H21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="22" ht="13.8" spans="1:8">
+      <c s="12" r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c s="12" r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c s="12" r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c s="5" r="D22">
+        <f>INDIRECT(F22)</f>
+        <v/>
+      </c>
+      <c s="5" r="E22">
+        <f>INDIRECT(G22)</f>
+        <v/>
+      </c>
+      <c s="13" r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c s="13" r="G22" t="s">
+        <v>81</v>
+      </c>
+      <c s="1" r="H22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="23" ht="13.8" spans="1:8">
+      <c s="10" r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c s="10" r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c s="10" r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c s="8" r="D23">
+        <f>INDIRECT(F23)</f>
+        <v/>
+      </c>
+      <c s="8" r="E23">
+        <f>INDIRECT(G23)</f>
+        <v/>
+      </c>
+      <c s="11" r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c s="11" r="G23" t="s">
+        <v>84</v>
+      </c>
+      <c s="1" r="H23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="24" ht="13.8" spans="1:8">
+      <c s="12" r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c s="12" r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c s="12" r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c s="5" r="D24">
+        <f>INDIRECT(F24)</f>
+        <v/>
+      </c>
+      <c s="5" r="E24">
+        <f>INDIRECT(G24)</f>
+        <v/>
+      </c>
+      <c s="13" r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c s="13" r="G24" t="s">
+        <v>87</v>
+      </c>
+      <c s="1" r="H24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="25" ht="13.8" spans="1:8">
+      <c s="10" r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c s="10" r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c s="10" r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c s="8" r="D25">
+        <f>INDIRECT(F25)</f>
+        <v/>
+      </c>
+      <c s="8" r="E25">
+        <f>INDIRECT(G25)</f>
+        <v/>
+      </c>
+      <c s="11" r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c s="11" r="G25" t="s">
+        <v>92</v>
+      </c>
+      <c s="1" r="H25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="26" ht="13.8" spans="1:8">
+      <c s="12" r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c s="12" r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c s="12" r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c s="5" r="D26">
+        <f>INDIRECT(F26)</f>
+        <v/>
+      </c>
+      <c s="5" r="E26">
+        <f>INDIRECT(G26)</f>
+        <v/>
+      </c>
+      <c s="13" r="F26" t="s">
+        <v>94</v>
+      </c>
+      <c s="13" r="G26" t="s">
+        <v>95</v>
+      </c>
+      <c s="1" r="H26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="27" ht="13.8" spans="1:8">
+      <c s="10" r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c s="10" r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c s="10" r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c s="8" r="D27">
+        <f>INDIRECT(F27)</f>
+        <v/>
+      </c>
+      <c s="8" r="E27">
+        <f>INDIRECT(G27)</f>
+        <v/>
+      </c>
+      <c s="11" r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c s="11" r="G27" t="s">
+        <v>98</v>
+      </c>
+      <c s="1" r="H27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="28" ht="13.8" spans="1:8">
+      <c s="12" r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c s="12" r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c s="12" r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c s="5" r="D28">
+        <f>INDIRECT(F28)</f>
+        <v/>
+      </c>
+      <c s="5" r="E28">
+        <f>INDIRECT(G28)</f>
+        <v/>
+      </c>
+      <c s="13" r="F28" t="s">
+        <v>100</v>
+      </c>
+      <c s="13" r="G28" t="s">
+        <v>101</v>
+      </c>
+      <c s="1" r="H28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="29" ht="13.8" spans="1:8">
+      <c s="10" r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c s="10" r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c s="10" r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c s="8" r="D29">
+        <f>INDIRECT(F29)</f>
+        <v/>
+      </c>
+      <c s="8" r="E29">
+        <f>INDIRECT(G29)</f>
+        <v/>
+      </c>
+      <c s="11" r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c s="11" r="G29" t="s">
+        <v>104</v>
+      </c>
+      <c s="1" r="H29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="30" ht="13.8" spans="1:8">
+      <c s="12" r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c s="12" r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c s="12" r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c s="5" r="D30">
+        <f>INDIRECT(F30)</f>
+        <v/>
+      </c>
+      <c s="5" r="E30">
+        <f>INDIRECT(G30)</f>
+        <v/>
+      </c>
+      <c s="13" r="F30" t="s">
+        <v>106</v>
+      </c>
+      <c s="13" r="G30" t="s">
+        <v>107</v>
+      </c>
+      <c s="1" r="H30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="31" ht="13.8" spans="1:8">
+      <c s="10" r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c s="10" r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c s="10" r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c s="8" r="D31">
+        <f>INDIRECT(F31)</f>
+        <v/>
+      </c>
+      <c s="8" r="E31">
+        <f>INDIRECT(G31)</f>
+        <v/>
+      </c>
+      <c s="11" r="F31" t="s">
+        <v>109</v>
+      </c>
+      <c s="11" r="G31" t="s">
+        <v>110</v>
+      </c>
+      <c s="1" r="H31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="32" ht="13.8" spans="1:8">
+      <c s="12" r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c s="12" r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c s="12" r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c s="5" r="D32">
+        <f>INDIRECT(F32)</f>
+        <v/>
+      </c>
+      <c s="5" r="E32">
+        <f>INDIRECT(G32)</f>
+        <v/>
+      </c>
+      <c s="13" r="F32" t="s">
+        <v>112</v>
+      </c>
+      <c s="13" r="G32" t="s">
+        <v>113</v>
+      </c>
+      <c s="1" r="H32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="33" ht="13.8" spans="1:8">
+      <c s="10" r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c s="10" r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c s="10" r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c s="8" r="D33">
+        <f>INDIRECT(F33)</f>
+        <v/>
+      </c>
+      <c s="8" r="E33">
+        <f>INDIRECT(G33)</f>
+        <v/>
+      </c>
+      <c s="11" r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c s="11" r="G33" t="s">
+        <v>116</v>
+      </c>
+      <c s="1" r="H33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="34" ht="13.8" spans="1:8">
+      <c s="12" r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c s="12" r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c s="12" r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c s="5" r="D34">
+        <f>INDIRECT(F34)</f>
+        <v/>
+      </c>
+      <c s="5" r="E34">
+        <f>INDIRECT(G34)</f>
+        <v/>
+      </c>
+      <c s="13" r="F34" t="s">
+        <v>120</v>
+      </c>
+      <c s="13" r="G34" t="s">
+        <v>121</v>
+      </c>
+      <c s="1" r="H34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="35" ht="13.8" spans="1:8">
+      <c s="10" r="A35" t="s">
+        <v>122</v>
+      </c>
+      <c s="10" r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c s="10" r="C35" t="s">
+        <v>119</v>
+      </c>
+      <c s="8" r="D35">
+        <f>INDIRECT(F35)</f>
+        <v/>
+      </c>
+      <c s="8" r="E35">
+        <f>INDIRECT(G35)</f>
+        <v/>
+      </c>
+      <c s="11" r="F35" t="s">
+        <v>123</v>
+      </c>
+      <c s="11" r="G35" t="s">
+        <v>124</v>
+      </c>
+      <c s="1" r="H35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="36" ht="13.8" spans="1:8">
+      <c s="12" r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c s="12" r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c s="12" r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c s="5" r="D36">
+        <f>INDIRECT(F36)</f>
+        <v/>
+      </c>
+      <c s="5" r="E36">
+        <f>INDIRECT(G36)</f>
+        <v/>
+      </c>
+      <c s="13" r="F36" t="s">
+        <v>126</v>
+      </c>
+      <c s="13" r="G36" t="s">
+        <v>127</v>
+      </c>
+      <c s="1" r="H36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="37" ht="13.8" spans="1:8">
+      <c s="10" r="A37" t="s">
+        <v>128</v>
+      </c>
+      <c s="10" r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c s="10" r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c s="8" r="D37">
+        <f>INDIRECT(F37)</f>
+        <v/>
+      </c>
+      <c s="8" r="E37">
+        <f>INDIRECT(G37)</f>
+        <v/>
+      </c>
+      <c s="11" r="F37" t="s">
+        <v>130</v>
+      </c>
+      <c s="11" r="G37" t="s">
+        <v>131</v>
+      </c>
+      <c s="1" r="H37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="38" ht="13.8" spans="1:8">
+      <c s="12" r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c s="12" r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c s="12" r="C38" t="s">
+        <v>129</v>
+      </c>
+      <c s="5" r="D38">
+        <f>INDIRECT(F38)</f>
+        <v/>
+      </c>
+      <c s="5" r="E38">
+        <f>INDIRECT(G38)</f>
+        <v/>
+      </c>
+      <c s="13" r="F38" t="s">
+        <v>133</v>
+      </c>
+      <c s="13" r="G38" t="s">
+        <v>134</v>
+      </c>
+      <c s="1" r="H38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="39" ht="13.8" spans="1:8">
+      <c s="10" r="A39" t="s">
+        <v>135</v>
+      </c>
+      <c s="10" r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c s="10" r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c s="8" r="D39">
+        <f>INDIRECT(F39)</f>
+        <v/>
+      </c>
+      <c s="8" r="E39">
+        <f>INDIRECT(G39)</f>
+        <v/>
+      </c>
+      <c s="11" r="F39" t="s">
+        <v>136</v>
+      </c>
+      <c s="11" r="G39" t="s">
+        <v>137</v>
+      </c>
+      <c s="1" r="H39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="40" ht="13.8" spans="1:8">
+      <c s="12" r="A40" t="s">
+        <v>138</v>
+      </c>
+      <c s="12" r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c s="12" r="C40" t="s">
+        <v>129</v>
+      </c>
+      <c s="5" r="D40">
+        <f>INDIRECT(F40)</f>
+        <v/>
+      </c>
+      <c s="5" r="E40">
+        <f>INDIRECT(G40)</f>
+        <v/>
+      </c>
+      <c s="13" r="F40" t="s">
+        <v>139</v>
+      </c>
+      <c s="13" r="G40" t="s">
+        <v>140</v>
+      </c>
+      <c s="1" r="H40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="41" ht="13.8" spans="1:8">
+      <c s="10" r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c s="10" r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c s="10" r="C41" t="s">
+        <v>143</v>
+      </c>
+      <c s="8" r="D41">
+        <f>INDIRECT(F41)</f>
+        <v/>
+      </c>
+      <c s="8" r="E41">
+        <f>INDIRECT(G41)</f>
+        <v/>
+      </c>
+      <c s="11" r="F41" t="s">
+        <v>144</v>
+      </c>
+      <c s="11" r="G41" t="s">
+        <v>145</v>
+      </c>
+      <c s="1" r="H41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="42" ht="13.8" spans="1:8">
+      <c s="12" r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c s="12" r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c s="12" r="C42" t="s">
+        <v>143</v>
+      </c>
+      <c s="5" r="D42">
+        <f>INDIRECT(F42)</f>
+        <v/>
+      </c>
+      <c s="5" r="E42">
+        <f>INDIRECT(G42)</f>
+        <v/>
+      </c>
+      <c s="13" r="F42" t="s">
+        <v>147</v>
+      </c>
+      <c s="13" r="G42" t="s">
+        <v>148</v>
+      </c>
+      <c s="1" r="H42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="43" ht="13.8" spans="1:8">
+      <c s="10" r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c s="10" r="B43" t="s">
+        <v>142</v>
+      </c>
+      <c s="10" r="C43" t="s">
+        <v>143</v>
+      </c>
+      <c s="8" r="D43">
+        <f>INDIRECT(F43)</f>
+        <v/>
+      </c>
+      <c s="8" r="E43">
+        <f>INDIRECT(G43)</f>
+        <v/>
+      </c>
+      <c s="11" r="F43" t="s">
+        <v>150</v>
+      </c>
+      <c s="11" r="G43" t="s">
+        <v>151</v>
+      </c>
+      <c s="1" r="H43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="44" ht="13.8" spans="1:8">
+      <c s="12" r="A44" t="s">
+        <v>152</v>
+      </c>
+      <c s="12" r="B44" t="s">
+        <v>153</v>
+      </c>
+      <c s="12" r="C44" t="s">
+        <v>154</v>
+      </c>
+      <c s="5" r="D44">
+        <f>INDIRECT(F44)</f>
+        <v/>
+      </c>
+      <c s="5" r="E44">
+        <f>INDIRECT(G44)</f>
+        <v/>
+      </c>
+      <c s="13" r="F44" t="s">
+        <v>155</v>
+      </c>
+      <c s="13" r="G44" t="s">
+        <v>156</v>
+      </c>
+      <c s="1" r="H44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="45" ht="13.8" spans="1:8">
+      <c s="10" r="A45" t="s">
+        <v>157</v>
+      </c>
+      <c s="10" r="B45" t="s">
+        <v>153</v>
+      </c>
+      <c s="10" r="C45" t="s">
+        <v>154</v>
+      </c>
+      <c s="8" r="D45">
+        <f>INDIRECT(F45)</f>
+        <v/>
+      </c>
+      <c s="8" r="E45">
+        <f>INDIRECT(G45)</f>
+        <v/>
+      </c>
+      <c s="11" r="F45" t="s">
+        <v>158</v>
+      </c>
+      <c s="11" r="G45" t="s">
+        <v>159</v>
+      </c>
+      <c s="1" r="H45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="46" ht="13.8" spans="1:8">
+      <c s="12" r="A46" t="s">
+        <v>160</v>
+      </c>
+      <c s="12" r="B46" t="s">
+        <v>153</v>
+      </c>
+      <c s="12" r="C46" t="s">
+        <v>154</v>
+      </c>
+      <c s="5" r="D46">
+        <f>INDIRECT(F46)</f>
+        <v/>
+      </c>
+      <c s="5" r="E46">
+        <f>INDIRECT(G46)</f>
+        <v/>
+      </c>
+      <c s="13" r="F46" t="s">
+        <v>161</v>
+      </c>
+      <c s="13" r="G46" t="s">
+        <v>162</v>
+      </c>
+      <c s="1" r="H46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="47" ht="13.8" spans="1:8">
+      <c s="10" r="A47" t="s">
+        <v>163</v>
+      </c>
+      <c s="10" r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c s="10" r="C47" t="s">
+        <v>164</v>
+      </c>
+      <c s="8" r="D47">
+        <f>INDIRECT(F47)</f>
+        <v/>
+      </c>
+      <c s="8" r="E47">
+        <f>INDIRECT(G47)</f>
+        <v/>
+      </c>
+      <c s="11" r="F47" t="s">
+        <v>165</v>
+      </c>
+      <c s="11" r="G47" t="s">
+        <v>166</v>
+      </c>
+      <c s="1" r="H47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="48" ht="13.8" spans="1:8">
+      <c s="12" r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c s="12" r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c s="12" r="C48" t="s">
+        <v>164</v>
+      </c>
+      <c s="5" r="D48">
+        <f>INDIRECT(F48)</f>
+        <v/>
+      </c>
+      <c s="5" r="E48">
+        <f>INDIRECT(G48)</f>
+        <v/>
+      </c>
+      <c s="13" r="F48" t="s">
+        <v>168</v>
+      </c>
+      <c s="13" r="G48" t="s">
+        <v>169</v>
+      </c>
+      <c s="1" r="H48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="49" ht="13.8" spans="1:8">
+      <c s="10" r="A49" t="s">
+        <v>170</v>
+      </c>
+      <c s="10" r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c s="10" r="C49" t="s">
+        <v>164</v>
+      </c>
+      <c s="8" r="D49">
+        <f>INDIRECT(F49)</f>
+        <v/>
+      </c>
+      <c s="8" r="E49">
+        <f>INDIRECT(G49)</f>
+        <v/>
+      </c>
+      <c s="11" r="F49" t="s">
+        <v>171</v>
+      </c>
+      <c s="11" r="G49" t="s">
+        <v>172</v>
+      </c>
+      <c s="1" r="H49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="50" ht="13.8" spans="1:8">
+      <c s="12" r="A50" t="s">
+        <v>173</v>
+      </c>
+      <c s="12" r="B50" t="s">
+        <v>174</v>
+      </c>
+      <c s="12" r="C50" t="s">
+        <v>175</v>
+      </c>
+      <c s="5" r="D50">
+        <f>INDIRECT(F50)</f>
+        <v/>
+      </c>
+      <c s="5" r="E50">
+        <f>INDIRECT(G50)</f>
+        <v/>
+      </c>
+      <c s="13" r="F50" t="s">
+        <v>176</v>
+      </c>
+      <c s="13" r="G50" t="s">
+        <v>177</v>
+      </c>
+      <c s="1" r="H50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="51" ht="13.8" spans="1:8">
+      <c s="10" r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c s="10" r="B51" t="s">
+        <v>174</v>
+      </c>
+      <c s="10" r="C51" t="s">
+        <v>175</v>
+      </c>
+      <c s="8" r="D51">
+        <f>INDIRECT(F51)</f>
+        <v/>
+      </c>
+      <c s="8" r="E51">
+        <f>INDIRECT(G51)</f>
+        <v/>
+      </c>
+      <c s="11" r="F51" t="s">
+        <v>179</v>
+      </c>
+      <c s="11" r="G51" t="s">
+        <v>180</v>
+      </c>
+      <c s="1" r="H51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="52" ht="13.8" spans="1:8">
+      <c s="12" r="A52" t="s">
+        <v>181</v>
+      </c>
+      <c s="12" r="B52" t="s">
+        <v>174</v>
+      </c>
+      <c s="12" r="C52" t="s">
+        <v>175</v>
+      </c>
+      <c s="5" r="D52">
+        <f>INDIRECT(F52)</f>
+        <v/>
+      </c>
+      <c s="5" r="E52">
+        <f>INDIRECT(G52)</f>
+        <v/>
+      </c>
+      <c s="13" r="F52" t="s">
+        <v>182</v>
+      </c>
+      <c s="13" r="G52" t="s">
+        <v>183</v>
+      </c>
+      <c s="1" r="H52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="53" ht="13.8" spans="1:8">
+      <c s="10" r="A53" t="s">
+        <v>184</v>
+      </c>
+      <c s="10" r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c s="10" r="C53" t="s">
+        <v>185</v>
+      </c>
+      <c s="8" r="D53">
+        <f>INDIRECT(F53)</f>
+        <v/>
+      </c>
+      <c s="8" r="E53">
+        <f>INDIRECT(G53)</f>
+        <v/>
+      </c>
+      <c s="11" r="F53" t="s">
+        <v>186</v>
+      </c>
+      <c s="11" r="G53" t="s">
+        <v>187</v>
+      </c>
+      <c s="1" r="H53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="54" ht="13.8" spans="1:8">
+      <c s="12" r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c s="12" r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c s="12" r="C54" t="s">
+        <v>185</v>
+      </c>
+      <c s="5" r="D54">
+        <f>INDIRECT(F54)</f>
+        <v/>
+      </c>
+      <c s="5" r="E54">
+        <f>INDIRECT(G54)</f>
+        <v/>
+      </c>
+      <c s="13" r="F54" t="s">
+        <v>189</v>
+      </c>
+      <c s="13" r="G54" t="s">
+        <v>190</v>
+      </c>
+      <c s="1" r="H54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="55" ht="13.8" spans="1:8">
+      <c s="10" r="A55" t="s">
+        <v>191</v>
+      </c>
+      <c s="10" r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c s="10" r="C55" t="s">
+        <v>185</v>
+      </c>
+      <c s="8" r="D55">
+        <f>INDIRECT(F55)</f>
+        <v/>
+      </c>
+      <c s="8" r="E55">
+        <f>INDIRECT(G55)</f>
+        <v/>
+      </c>
+      <c s="11" r="F55" t="s">
+        <v>192</v>
+      </c>
+      <c s="11" r="G55" t="s">
+        <v>193</v>
+      </c>
+      <c s="1" r="H55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="56" ht="13.8" spans="1:8">
+      <c s="12" r="A56" t="s">
+        <v>194</v>
+      </c>
+      <c s="12" r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c s="12" r="C56" t="s">
+        <v>185</v>
+      </c>
+      <c s="5" r="D56">
+        <f>INDIRECT(F56)</f>
+        <v/>
+      </c>
+      <c s="5" r="E56">
+        <f>INDIRECT(G56)</f>
+        <v/>
+      </c>
+      <c s="13" r="F56" t="s">
+        <v>195</v>
+      </c>
+      <c s="13" r="G56" t="s">
+        <v>196</v>
+      </c>
+      <c s="1" r="H56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="57" ht="13.8" spans="1:8">
+      <c s="10" r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c s="10" r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c s="10" r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c s="8" r="D57">
+        <f>INDIRECT(F57)</f>
+        <v/>
+      </c>
+      <c s="8" r="E57">
+        <f>INDIRECT(G57)</f>
+        <v/>
+      </c>
+      <c s="11" r="F57" t="s">
+        <v>198</v>
+      </c>
+      <c s="11" r="G57" t="s">
+        <v>199</v>
+      </c>
+      <c s="1" r="H57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="58" ht="13.8" spans="1:8">
+      <c s="12" r="A58" t="s">
+        <v>200</v>
+      </c>
+      <c s="12" r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c s="12" r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c s="5" r="D58">
+        <f>INDIRECT(F58)</f>
+        <v/>
+      </c>
+      <c s="5" r="E58">
+        <f>INDIRECT(G58)</f>
+        <v/>
+      </c>
+      <c s="13" r="F58" t="s">
+        <v>201</v>
+      </c>
+      <c s="13" r="G58" t="s">
+        <v>202</v>
+      </c>
+      <c s="1" r="H58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="59" ht="13.8" spans="1:8">
+      <c s="10" r="A59" t="s">
+        <v>203</v>
+      </c>
+      <c s="10" r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c s="10" r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c s="8" r="D59">
+        <f>INDIRECT(F59)</f>
+        <v/>
+      </c>
+      <c s="8" r="E59">
+        <f>INDIRECT(G59)</f>
+        <v/>
+      </c>
+      <c s="11" r="F59" t="s">
+        <v>204</v>
+      </c>
+      <c s="11" r="G59" t="s">
+        <v>205</v>
+      </c>
+      <c s="1" r="H59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="60" ht="13.8" spans="1:8">
+      <c s="12" r="A60" t="s">
+        <v>206</v>
+      </c>
+      <c s="12" r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c s="12" r="C60" t="s">
+        <v>185</v>
+      </c>
+      <c s="5" r="D60">
+        <f>INDIRECT(F60)</f>
+        <v/>
+      </c>
+      <c s="5" r="E60">
+        <f>INDIRECT(G60)</f>
+        <v/>
+      </c>
+      <c s="13" r="F60" t="s">
+        <v>207</v>
+      </c>
+      <c s="13" r="G60" t="s">
+        <v>208</v>
+      </c>
+      <c s="1" r="H60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="61" ht="13.8" spans="1:8">
+      <c s="10" r="A61" t="s">
+        <v>209</v>
+      </c>
+      <c s="10" r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c s="10" r="C61" t="s">
+        <v>185</v>
+      </c>
+      <c s="8" r="D61">
+        <f>INDIRECT(F61)</f>
+        <v/>
+      </c>
+      <c s="8" r="E61">
+        <f>INDIRECT(G61)</f>
+        <v/>
+      </c>
+      <c s="11" r="F61" t="s">
+        <v>210</v>
+      </c>
+      <c s="11" r="G61" t="s">
+        <v>211</v>
+      </c>
+      <c s="1" r="H61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="62" ht="13.8" spans="1:8">
+      <c s="12" r="A62" t="s">
+        <v>212</v>
+      </c>
+      <c s="12" r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c s="12" r="C62" t="s">
+        <v>185</v>
+      </c>
+      <c s="5" r="D62">
+        <f>INDIRECT(F62)</f>
+        <v/>
+      </c>
+      <c s="5" r="E62">
+        <f>INDIRECT(G62)</f>
+        <v/>
+      </c>
+      <c s="13" r="F62" t="s">
+        <v>213</v>
+      </c>
+      <c s="13" r="G62" t="s">
+        <v>214</v>
+      </c>
+      <c s="1" r="H62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="63" ht="13.8" spans="1:8">
+      <c s="10" r="A63" t="s">
+        <v>215</v>
+      </c>
+      <c s="10" r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c s="10" r="C63" t="s">
+        <v>185</v>
+      </c>
+      <c s="8" r="D63">
+        <f>INDIRECT(F63)</f>
+        <v/>
+      </c>
+      <c s="8" r="E63">
+        <f>INDIRECT(G63)</f>
+        <v/>
+      </c>
+      <c s="11" r="F63" t="s">
+        <v>216</v>
+      </c>
+      <c s="11" r="G63" t="s">
+        <v>217</v>
+      </c>
+      <c s="1" r="H63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="64" ht="13.8" spans="1:8">
+      <c s="12" r="A64" t="s">
+        <v>218</v>
+      </c>
+      <c s="12" r="B64" t="s">
+        <v>185</v>
+      </c>
+      <c s="12" r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c s="5" r="D64">
+        <f>INDIRECT(F64)</f>
+        <v/>
+      </c>
+      <c s="5" r="E64">
+        <f>INDIRECT(G64)</f>
+        <v/>
+      </c>
+      <c s="13" r="F64" t="s">
+        <v>219</v>
+      </c>
+      <c s="13" r="G64" t="s">
+        <v>220</v>
+      </c>
+      <c s="1" r="H64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="65" ht="13.8" spans="1:8">
+      <c s="10" r="A65" t="s">
+        <v>221</v>
+      </c>
+      <c s="10" r="B65" t="s">
+        <v>185</v>
+      </c>
+      <c s="10" r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c s="8" r="D65">
+        <f>INDIRECT(F65)</f>
+        <v/>
+      </c>
+      <c s="8" r="E65">
+        <f>INDIRECT(G65)</f>
+        <v/>
+      </c>
+      <c s="11" r="F65" t="s">
+        <v>222</v>
+      </c>
+      <c s="11" r="G65" t="s">
+        <v>223</v>
+      </c>
+      <c s="1" r="H65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="66" ht="13.8" spans="1:8">
+      <c s="12" r="A66" t="s">
+        <v>224</v>
+      </c>
+      <c s="12" r="B66" t="s">
+        <v>185</v>
+      </c>
+      <c s="12" r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c s="5" r="D66">
+        <f>INDIRECT(F66)</f>
+        <v/>
+      </c>
+      <c s="5" r="E66">
+        <f>INDIRECT(G66)</f>
+        <v/>
+      </c>
+      <c s="13" r="F66" t="s">
+        <v>225</v>
+      </c>
+      <c s="13" r="G66" t="s">
+        <v>226</v>
+      </c>
+      <c s="1" r="H66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="67" ht="13.8" spans="1:8">
+      <c s="10" r="A67" t="s">
+        <v>227</v>
+      </c>
+      <c s="10" r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c s="10" r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c s="8" r="D67">
+        <f>INDIRECT(F67)</f>
+        <v/>
+      </c>
+      <c s="8" r="E67">
+        <f>INDIRECT(G67)</f>
+        <v/>
+      </c>
+      <c s="11" r="F67" t="s">
+        <v>228</v>
+      </c>
+      <c s="11" r="G67" t="s">
+        <v>229</v>
+      </c>
+      <c s="1" r="H67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="68" ht="13.8" spans="1:8">
+      <c s="12" r="A68" t="s">
+        <v>230</v>
+      </c>
+      <c s="12" r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c s="12" r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c s="5" r="D68">
+        <f>INDIRECT(F68)</f>
+        <v/>
+      </c>
+      <c s="5" r="E68">
+        <f>INDIRECT(G68)</f>
+        <v/>
+      </c>
+      <c s="13" r="F68" t="s">
+        <v>231</v>
+      </c>
+      <c s="13" r="G68" t="s">
+        <v>232</v>
+      </c>
+      <c s="1" r="H68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="69" ht="13.8" spans="1:8">
+      <c s="10" r="A69" t="s">
+        <v>233</v>
+      </c>
+      <c s="10" r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c s="10" r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c s="8" r="D69">
+        <f>INDIRECT(F69)</f>
+        <v/>
+      </c>
+      <c s="8" r="E69">
+        <f>INDIRECT(G69)</f>
+        <v/>
+      </c>
+      <c s="11" r="F69" t="s">
+        <v>234</v>
+      </c>
+      <c s="11" r="G69" t="s">
+        <v>235</v>
+      </c>
+      <c s="1" r="H69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="70" ht="13.8" spans="1:8">
+      <c s="12" r="A70" t="s">
+        <v>236</v>
+      </c>
+      <c s="12" r="B70" t="s">
+        <v>118</v>
+      </c>
+      <c s="12" r="C70" t="s">
+        <v>237</v>
+      </c>
+      <c s="5" r="D70">
+        <f>INDIRECT(F70)</f>
+        <v/>
+      </c>
+      <c s="5" r="E70">
+        <f>INDIRECT(G70)</f>
+        <v/>
+      </c>
+      <c s="13" r="F70" t="s">
+        <v>238</v>
+      </c>
+      <c s="13" r="G70" t="s">
+        <v>239</v>
+      </c>
+      <c s="1" r="H70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="71" ht="13.8" spans="1:8">
+      <c s="10" r="A71" t="s">
+        <v>240</v>
+      </c>
+      <c s="10" r="B71" t="s">
+        <v>118</v>
+      </c>
+      <c s="10" r="C71" t="s">
+        <v>237</v>
+      </c>
+      <c s="8" r="D71">
+        <f>INDIRECT(F71)</f>
+        <v/>
+      </c>
+      <c s="8" r="E71">
+        <f>INDIRECT(G71)</f>
+        <v/>
+      </c>
+      <c s="11" r="F71" t="s">
+        <v>241</v>
+      </c>
+      <c s="11" r="G71" t="s">
+        <v>242</v>
+      </c>
+      <c s="1" r="H71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="72" ht="13.8" spans="1:8">
+      <c s="12" r="A72" t="s">
+        <v>243</v>
+      </c>
+      <c s="12" r="B72" t="s">
+        <v>118</v>
+      </c>
+      <c s="12" r="C72" t="s">
+        <v>237</v>
+      </c>
+      <c s="5" r="D72">
+        <f>INDIRECT(F72)</f>
+        <v/>
+      </c>
+      <c s="5" r="E72">
+        <f>INDIRECT(G72)</f>
+        <v/>
+      </c>
+      <c s="13" r="F72" t="s">
+        <v>244</v>
+      </c>
+      <c s="13" r="G72" t="s">
+        <v>245</v>
+      </c>
+      <c s="1" r="H72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="73" ht="13.8" spans="1:8">
+      <c s="10" r="A73" t="s">
+        <v>246</v>
+      </c>
+      <c s="10" r="B73" t="s">
+        <v>118</v>
+      </c>
+      <c s="10" r="C73" t="s">
+        <v>237</v>
+      </c>
+      <c s="8" r="D73">
+        <f>INDIRECT(F73)</f>
+        <v/>
+      </c>
+      <c s="8" r="E73">
+        <f>INDIRECT(G73)</f>
+        <v/>
+      </c>
+      <c s="11" r="F73" t="s">
+        <v>247</v>
+      </c>
+      <c s="11" r="G73" t="s">
+        <v>248</v>
+      </c>
+      <c s="1" r="H73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="74" ht="13.8" spans="1:8">
+      <c s="12" r="A74" t="s">
+        <v>249</v>
+      </c>
+      <c s="12" r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c s="12" r="C74" t="s">
+        <v>46</v>
+      </c>
+      <c s="5" r="D74">
+        <f>INDIRECT(F74)</f>
+        <v/>
+      </c>
+      <c s="5" r="E74">
+        <f>INDIRECT(G74)</f>
+        <v/>
+      </c>
+      <c s="13" r="F74" t="s">
+        <v>250</v>
+      </c>
+      <c s="13" r="G74" t="s">
+        <v>251</v>
+      </c>
+      <c s="1" r="H74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="75" ht="13.8" spans="1:8">
+      <c s="10" r="A75" t="s">
+        <v>252</v>
+      </c>
+      <c s="10" r="B75" t="s">
+        <v>46</v>
+      </c>
+      <c s="10" r="C75" t="s">
+        <v>46</v>
+      </c>
+      <c s="8" r="D75">
+        <f>INDIRECT(F75)</f>
+        <v/>
+      </c>
+      <c s="8" r="E75">
+        <f>INDIRECT(G75)</f>
+        <v/>
+      </c>
+      <c s="11" r="F75" t="s">
+        <v>253</v>
+      </c>
+      <c s="11" r="G75" t="s">
+        <v>254</v>
+      </c>
+      <c s="1" r="H75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="76" ht="13.8" spans="1:8">
+      <c s="12" r="A76" t="s">
+        <v>255</v>
+      </c>
+      <c s="12" r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c s="12" r="C76" t="s">
+        <v>46</v>
+      </c>
+      <c s="5" r="D76">
+        <f>INDIRECT(F76)</f>
+        <v/>
+      </c>
+      <c s="5" r="E76">
+        <f>INDIRECT(G76)</f>
+        <v/>
+      </c>
+      <c s="13" r="F76" t="s">
+        <v>256</v>
+      </c>
+      <c s="13" r="G76" t="s">
+        <v>257</v>
+      </c>
+      <c s="1" r="H76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="77" ht="13.8" spans="1:8">
+      <c s="10" r="A77" t="s">
+        <v>258</v>
+      </c>
+      <c s="10" r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c s="10" r="C77" t="s">
+        <v>46</v>
+      </c>
+      <c s="8" r="D77">
+        <f>INDIRECT(F77)</f>
+        <v/>
+      </c>
+      <c s="8" r="E77">
+        <f>INDIRECT(G77)</f>
+        <v/>
+      </c>
+      <c s="11" r="F77" t="s">
+        <v>259</v>
+      </c>
+      <c s="11" r="G77" t="s">
+        <v>260</v>
+      </c>
+      <c s="1" r="H77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="78" ht="13.8" spans="1:8">
+      <c s="12" r="A78" t="s">
+        <v>261</v>
+      </c>
+      <c s="12" r="B78" t="s">
+        <v>142</v>
+      </c>
+      <c s="12" r="C78" t="s">
+        <v>262</v>
+      </c>
+      <c s="5" r="D78">
+        <f>INDIRECT(F78)</f>
+        <v/>
+      </c>
+      <c s="5" r="E78">
+        <f>INDIRECT(G78)</f>
+        <v/>
+      </c>
+      <c s="13" r="F78" t="s">
+        <v>263</v>
+      </c>
+      <c s="13" r="G78" t="s">
+        <v>264</v>
+      </c>
+      <c s="1" r="H78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="79" ht="13.8" spans="1:8">
+      <c s="10" r="A79" t="s">
+        <v>265</v>
+      </c>
+      <c s="10" r="B79" t="s">
+        <v>142</v>
+      </c>
+      <c s="10" r="C79" t="s">
+        <v>262</v>
+      </c>
+      <c s="8" r="D79">
+        <f>INDIRECT(F79)</f>
+        <v/>
+      </c>
+      <c s="8" r="E79">
+        <f>INDIRECT(G79)</f>
+        <v/>
+      </c>
+      <c s="11" r="F79" t="s">
+        <v>266</v>
+      </c>
+      <c s="11" r="G79" t="s">
+        <v>267</v>
+      </c>
+      <c s="1" r="H79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="80" ht="13.8" spans="1:8">
+      <c s="12" r="A80" t="s">
+        <v>268</v>
+      </c>
+      <c s="12" r="B80" t="s">
+        <v>142</v>
+      </c>
+      <c s="12" r="C80" t="s">
+        <v>262</v>
+      </c>
+      <c s="5" r="D80">
+        <f>INDIRECT(F80)</f>
+        <v/>
+      </c>
+      <c s="5" r="E80">
+        <f>INDIRECT(G80)</f>
+        <v/>
+      </c>
+      <c s="13" r="F80" t="s">
+        <v>269</v>
+      </c>
+      <c s="13" r="G80" t="s">
+        <v>270</v>
+      </c>
+      <c s="1" r="H80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="81" ht="13.8" spans="1:8">
+      <c s="10" r="A81" t="s">
+        <v>271</v>
+      </c>
+      <c s="10" r="B81" t="s">
+        <v>142</v>
+      </c>
+      <c s="10" r="C81" t="s">
+        <v>262</v>
+      </c>
+      <c s="8" r="D81">
+        <f>INDIRECT(F81)</f>
+        <v/>
+      </c>
+      <c s="8" r="E81">
+        <f>INDIRECT(G81)</f>
+        <v/>
+      </c>
+      <c s="11" r="F81" t="s">
+        <v>272</v>
+      </c>
+      <c s="11" r="G81" t="s">
+        <v>273</v>
+      </c>
+      <c s="1" r="H81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="82" ht="13.8" spans="1:8">
+      <c s="12" r="A82" t="s">
+        <v>274</v>
+      </c>
+      <c s="12" r="B82" t="s">
+        <v>142</v>
+      </c>
+      <c s="12" r="C82" t="s">
+        <v>262</v>
+      </c>
+      <c s="5" r="D82">
+        <f>INDIRECT(F82)</f>
+        <v/>
+      </c>
+      <c s="5" r="E82">
+        <f>INDIRECT(G82)</f>
+        <v/>
+      </c>
+      <c s="13" r="F82" t="s">
+        <v>275</v>
+      </c>
+      <c s="13" r="G82" t="s">
+        <v>276</v>
+      </c>
+      <c s="1" r="H82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="83" ht="13.8" spans="1:8">
+      <c s="10" r="A83" t="s">
+        <v>277</v>
+      </c>
+      <c s="10" r="B83" t="s">
+        <v>142</v>
+      </c>
+      <c s="10" r="C83" t="s">
+        <v>262</v>
+      </c>
+      <c s="8" r="D83">
+        <f>INDIRECT(F83)</f>
+        <v/>
+      </c>
+      <c s="8" r="E83">
+        <f>INDIRECT(G83)</f>
+        <v/>
+      </c>
+      <c s="11" r="F83" t="s">
+        <v>278</v>
+      </c>
+      <c s="11" r="G83" t="s">
+        <v>279</v>
+      </c>
+      <c s="1" r="H83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="84" ht="13.8" spans="1:8">
+      <c s="12" r="A84" t="s">
+        <v>280</v>
+      </c>
+      <c s="12" r="B84" t="s">
+        <v>153</v>
+      </c>
+      <c s="12" r="C84" t="s">
+        <v>154</v>
+      </c>
+      <c s="5" r="D84">
+        <f>INDIRECT(F84)</f>
+        <v/>
+      </c>
+      <c s="5" r="E84">
+        <f>INDIRECT(G84)</f>
+        <v/>
+      </c>
+      <c s="13" r="F84" t="s">
+        <v>281</v>
+      </c>
+      <c s="13" r="G84" t="s">
+        <v>282</v>
+      </c>
+      <c s="1" r="H84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="85" ht="13.8" spans="1:8">
+      <c s="10" r="A85" t="s">
+        <v>283</v>
+      </c>
+      <c s="10" r="B85" t="s">
+        <v>153</v>
+      </c>
+      <c s="10" r="C85" t="s">
+        <v>154</v>
+      </c>
+      <c s="8" r="D85">
+        <f>INDIRECT(F85)</f>
+        <v/>
+      </c>
+      <c s="8" r="E85">
+        <f>INDIRECT(G85)</f>
+        <v/>
+      </c>
+      <c s="11" r="F85" t="s">
+        <v>284</v>
+      </c>
+      <c s="11" r="G85" t="s">
+        <v>285</v>
+      </c>
+      <c s="1" r="H85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="86" ht="13.8" spans="1:8">
+      <c s="12" r="A86" t="s">
+        <v>286</v>
+      </c>
+      <c s="12" r="B86" t="s">
+        <v>153</v>
+      </c>
+      <c s="12" r="C86" t="s">
+        <v>154</v>
+      </c>
+      <c s="5" r="D86">
+        <f>INDIRECT(F86)</f>
+        <v/>
+      </c>
+      <c s="5" r="E86">
+        <f>INDIRECT(G86)</f>
+        <v/>
+      </c>
+      <c s="13" r="F86" t="s">
+        <v>287</v>
+      </c>
+      <c s="13" r="G86" t="s">
+        <v>288</v>
+      </c>
+      <c s="1" r="H86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="87" ht="13.8" spans="1:8">
+      <c s="10" r="A87" t="s">
+        <v>289</v>
+      </c>
+      <c s="10" r="B87" t="s">
+        <v>78</v>
+      </c>
+      <c s="10" r="C87" t="s">
+        <v>290</v>
+      </c>
+      <c s="8" r="D87">
+        <f>INDIRECT(F87)</f>
+        <v/>
+      </c>
+      <c s="8" r="E87">
+        <f>INDIRECT(G87)</f>
+        <v/>
+      </c>
+      <c s="11" r="F87" t="s">
+        <v>291</v>
+      </c>
+      <c s="11" r="G87" t="s">
+        <v>292</v>
+      </c>
+      <c s="1" r="H87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="88" ht="13.8" spans="1:8">
+      <c s="12" r="A88" t="s">
+        <v>293</v>
+      </c>
+      <c s="12" r="B88" t="s">
+        <v>78</v>
+      </c>
+      <c s="12" r="C88" t="s">
+        <v>290</v>
+      </c>
+      <c s="5" r="D88">
+        <f>INDIRECT(F88)</f>
+        <v/>
+      </c>
+      <c s="5" r="E88">
+        <f>INDIRECT(G88)</f>
+        <v/>
+      </c>
+      <c s="13" r="F88" t="s">
+        <v>294</v>
+      </c>
+      <c s="13" r="G88" t="s">
+        <v>295</v>
+      </c>
+      <c s="1" r="H88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="89" ht="13.8" spans="1:8">
+      <c s="10" r="A89" t="s">
+        <v>296</v>
+      </c>
+      <c s="10" r="B89" t="s">
+        <v>78</v>
+      </c>
+      <c s="10" r="C89" t="s">
+        <v>290</v>
+      </c>
+      <c s="8" r="D89">
+        <f>INDIRECT(F89)</f>
+        <v/>
+      </c>
+      <c s="8" r="E89">
+        <f>INDIRECT(G89)</f>
+        <v/>
+      </c>
+      <c s="11" r="F89" t="s">
+        <v>297</v>
+      </c>
+      <c s="11" r="G89" t="s">
+        <v>298</v>
+      </c>
+      <c s="1" r="H89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="90" ht="13.8" spans="1:8">
+      <c s="12" r="A90" t="s">
+        <v>299</v>
+      </c>
+      <c s="12" r="B90" t="s">
+        <v>78</v>
+      </c>
+      <c s="12" r="C90" t="s">
+        <v>290</v>
+      </c>
+      <c s="5" r="D90">
+        <f>INDIRECT(F90)</f>
+        <v/>
+      </c>
+      <c s="5" r="E90">
+        <f>INDIRECT(G90)</f>
+        <v/>
+      </c>
+      <c s="13" r="F90" t="s">
+        <v>300</v>
+      </c>
+      <c s="13" r="G90" t="s">
+        <v>301</v>
+      </c>
+      <c s="1" r="H90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="91" ht="13.8" spans="1:8">
+      <c s="10" r="A91" t="s">
+        <v>302</v>
+      </c>
+      <c s="10" r="B91" t="s">
+        <v>78</v>
+      </c>
+      <c s="10" r="C91" t="s">
+        <v>290</v>
+      </c>
+      <c s="8" r="D91">
+        <f>INDIRECT(F91)</f>
+        <v/>
+      </c>
+      <c s="8" r="E91">
+        <f>INDIRECT(G91)</f>
+        <v/>
+      </c>
+      <c s="11" r="F91" t="s">
+        <v>303</v>
+      </c>
+      <c s="11" r="G91" t="s">
+        <v>304</v>
+      </c>
+      <c s="1" r="H91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="92" ht="13.8" spans="1:8">
+      <c s="12" r="A92" t="s">
+        <v>305</v>
+      </c>
+      <c s="12" r="B92" t="s">
+        <v>78</v>
+      </c>
+      <c s="12" r="C92" t="s">
+        <v>290</v>
+      </c>
+      <c s="5" r="D92">
+        <f>INDIRECT(F92)</f>
+        <v/>
+      </c>
+      <c s="5" r="E92">
+        <f>INDIRECT(G92)</f>
+        <v/>
+      </c>
+      <c s="13" r="F92" t="s">
+        <v>306</v>
+      </c>
+      <c s="13" r="G92" t="s">
+        <v>307</v>
+      </c>
+      <c s="1" r="H92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="93" ht="13.8" spans="1:8">
+      <c s="10" r="A93" t="s">
+        <v>308</v>
+      </c>
+      <c s="10" r="B93" t="s">
+        <v>78</v>
+      </c>
+      <c s="10" r="C93" t="s">
+        <v>290</v>
+      </c>
+      <c s="8" r="D93">
+        <f>INDIRECT(F93)</f>
+        <v/>
+      </c>
+      <c s="8" r="E93">
+        <f>INDIRECT(G93)</f>
+        <v/>
+      </c>
+      <c s="11" r="F93" t="s">
+        <v>309</v>
+      </c>
+      <c s="11" r="G93" t="s">
+        <v>310</v>
+      </c>
+      <c s="1" r="H93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" s="14" r="94" ht="13.8" spans="1:8">
+      <c s="12" r="A94" t="s">
+        <v>311</v>
+      </c>
+      <c s="12" r="B94" t="s">
+        <v>78</v>
+      </c>
+      <c s="12" r="C94" t="s">
+        <v>290</v>
+      </c>
+      <c s="5" r="D94">
+        <f>INDIRECT(F94)</f>
+        <v/>
+      </c>
+      <c s="5" r="E94">
+        <f>INDIRECT(G94)</f>
+        <v/>
+      </c>
+      <c s="13" r="F94" t="s">
+        <v>312</v>
+      </c>
+      <c s="13" r="G94" t="s">
+        <v>313</v>
+      </c>
+      <c s="1" r="H94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c s="15" r="A95" t="s">
+        <v>314</v>
+      </c>
+      <c s="15" r="B95" t="s">
+        <v>78</v>
+      </c>
+      <c s="15" r="C95" t="s">
+        <v>290</v>
+      </c>
+      <c s="16" r="D95">
+        <f>INDIRECT(F95)
 </f>
         <v/>
       </c>
-      <c s="12" r="E21">
-        <f>INDIRECT(G21)
+      <c s="16" r="E95">
+        <f>INDIRECT(G95)
 </f>
         <v/>
       </c>
-      <c s="13" r="F21" t="s">
-        <v>75</v>
-      </c>
-      <c s="13" r="G21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c s="14" r="A22" t="s">
-        <v>77</v>
-      </c>
-      <c s="14" r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c s="14" r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c s="15" r="D22">
-        <f>INDIRECT(F22)
+      <c s="17" r="F95" t="s">
+        <v>315</v>
+      </c>
+      <c s="17" r="G95" t="s">
+        <v>316</v>
+      </c>
+      <c r="H95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c s="18" r="A96" t="s">
+        <v>317</v>
+      </c>
+      <c s="18" r="B96" t="s">
+        <v>174</v>
+      </c>
+      <c s="18" r="C96" t="s">
+        <v>318</v>
+      </c>
+      <c s="19" r="D96">
+        <f>INDIRECT(F96)
 </f>
         <v/>
       </c>
-      <c s="15" r="E22">
-        <f>INDIRECT(G22)
+      <c s="19" r="E96">
+        <f>INDIRECT(G96)
 </f>
         <v/>
       </c>
-      <c s="16" r="F22" t="s">
-        <v>80</v>
-      </c>
-      <c s="16" r="G22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c s="11" r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c s="11" r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c s="11" r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c s="12" r="D23">
-        <f>INDIRECT(F23)
+      <c s="20" r="F96" t="s">
+        <v>319</v>
+      </c>
+      <c s="20" r="G96" t="s">
+        <v>320</v>
+      </c>
+      <c r="H96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c s="15" r="A97" t="s">
+        <v>321</v>
+      </c>
+      <c s="15" r="B97" t="s">
+        <v>174</v>
+      </c>
+      <c s="15" r="C97" t="s">
+        <v>318</v>
+      </c>
+      <c s="16" r="D97">
+        <f>INDIRECT(F97)
 </f>
         <v/>
       </c>
-      <c s="12" r="E23">
-        <f>INDIRECT(G23)
+      <c s="16" r="E97">
+        <f>INDIRECT(G97)
 </f>
         <v/>
       </c>
-      <c s="13" r="F23" t="s">
-        <v>83</v>
-      </c>
-      <c s="13" r="G23" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c s="14" r="A24" t="s">
-        <v>85</v>
-      </c>
-      <c s="14" r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c s="14" r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c s="15" r="D24">
-        <f>INDIRECT(F24)
+      <c s="17" r="F97" t="s">
+        <v>322</v>
+      </c>
+      <c s="17" r="G97" t="s">
+        <v>323</v>
+      </c>
+      <c r="H97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c s="18" r="A98" t="s">
+        <v>324</v>
+      </c>
+      <c s="18" r="B98" t="s">
+        <v>174</v>
+      </c>
+      <c s="18" r="C98" t="s">
+        <v>318</v>
+      </c>
+      <c s="19" r="D98">
+        <f>INDIRECT(F98)
 </f>
         <v/>
       </c>
-      <c s="15" r="E24">
-        <f>INDIRECT(G24)
+      <c s="19" r="E98">
+        <f>INDIRECT(G98)
 </f>
         <v/>
       </c>
-      <c s="16" r="F24" t="s">
-        <v>86</v>
-      </c>
-      <c s="16" r="G24" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c s="11" r="A25" t="s">
-        <v>88</v>
-      </c>
-      <c s="11" r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c s="11" r="C25" t="s">
-        <v>90</v>
-      </c>
-      <c s="12" r="D25">
-        <f>INDIRECT(F25)
+      <c s="20" r="F98" t="s">
+        <v>325</v>
+      </c>
+      <c s="20" r="G98" t="s">
+        <v>326</v>
+      </c>
+      <c r="H98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c s="15" r="A99" t="s">
+        <v>327</v>
+      </c>
+      <c s="15" r="B99" t="s">
+        <v>174</v>
+      </c>
+      <c s="15" r="C99" t="s">
+        <v>318</v>
+      </c>
+      <c s="16" r="D99">
+        <f>INDIRECT(F99)
 </f>
         <v/>
       </c>
-      <c s="12" r="E25">
-        <f>INDIRECT(G25)
+      <c s="16" r="E99">
+        <f>INDIRECT(G99)
 </f>
         <v/>
       </c>
-      <c s="13" r="F25" t="s">
-        <v>91</v>
-      </c>
-      <c s="13" r="G25" t="s">
-        <v>92</v>
-      </c>
-      <c r="H25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c s="14" r="A26" t="s">
-        <v>93</v>
-      </c>
-      <c s="14" r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c s="14" r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c s="15" r="D26">
-        <f>INDIRECT(F26)
+      <c s="17" r="F99" t="s">
+        <v>328</v>
+      </c>
+      <c s="17" r="G99" t="s">
+        <v>329</v>
+      </c>
+      <c r="H99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c s="18" r="A100" t="s">
+        <v>330</v>
+      </c>
+      <c s="18" r="B100" t="s">
+        <v>174</v>
+      </c>
+      <c s="18" r="C100" t="s">
+        <v>318</v>
+      </c>
+      <c s="19" r="D100">
+        <f>INDIRECT(F100)
 </f>
         <v/>
       </c>
-      <c s="15" r="E26">
-        <f>INDIRECT(G26)
+      <c s="19" r="E100">
+        <f>INDIRECT(G100)
 </f>
         <v/>
       </c>
-      <c s="16" r="F26" t="s">
-        <v>94</v>
-      </c>
-      <c s="16" r="G26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c s="11" r="A27" t="s">
-        <v>96</v>
-      </c>
-      <c s="11" r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c s="11" r="C27" t="s">
-        <v>90</v>
-      </c>
-      <c s="12" r="D27">
-        <f>INDIRECT(F27)
+      <c s="20" r="F100" t="s">
+        <v>331</v>
+      </c>
+      <c s="20" r="G100" t="s">
+        <v>332</v>
+      </c>
+      <c r="H100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c s="15" r="A101" t="s">
+        <v>333</v>
+      </c>
+      <c s="15" r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c s="15" r="C101" t="s">
+        <v>334</v>
+      </c>
+      <c s="16" r="D101">
+        <f>INDIRECT(F101)
 </f>
         <v/>
       </c>
-      <c s="12" r="E27">
-        <f>INDIRECT(G27)
+      <c s="16" r="E101">
+        <f>INDIRECT(G101)
 </f>
         <v/>
       </c>
-      <c s="13" r="F27" t="s">
-        <v>97</v>
-      </c>
-      <c s="13" r="G27" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c s="14" r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c s="14" r="B28" t="s">
+      <c s="17" r="F101" t="s">
+        <v>335</v>
+      </c>
+      <c s="17" r="G101" t="s">
+        <v>336</v>
+      </c>
+      <c r="H101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c s="18" r="A102" t="s">
+        <v>337</v>
+      </c>
+      <c s="18" r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c s="18" r="C102" t="s">
+        <v>334</v>
+      </c>
+      <c s="19" r="D102">
+        <f>INDIRECT(F102)
+</f>
+        <v/>
+      </c>
+      <c s="19" r="E102">
+        <f>INDIRECT(G102)
+</f>
+        <v/>
+      </c>
+      <c s="20" r="F102" t="s">
+        <v>338</v>
+      </c>
+      <c s="20" r="G102" t="s">
+        <v>339</v>
+      </c>
+      <c r="H102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c s="15" r="A103" t="s">
+        <v>340</v>
+      </c>
+      <c s="15" r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c s="15" r="C103" t="s">
+        <v>334</v>
+      </c>
+      <c s="16" r="D103">
+        <f>INDIRECT(F103)
+</f>
+        <v/>
+      </c>
+      <c s="16" r="E103">
+        <f>INDIRECT(G103)
+</f>
+        <v/>
+      </c>
+      <c s="17" r="F103" t="s">
+        <v>341</v>
+      </c>
+      <c s="17" r="G103" t="s">
+        <v>342</v>
+      </c>
+      <c r="H103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c s="18" r="A104" t="s">
+        <v>343</v>
+      </c>
+      <c s="18" r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c s="18" r="C104" t="s">
+        <v>334</v>
+      </c>
+      <c s="19" r="D104">
+        <f>INDIRECT(F104)
+</f>
+        <v/>
+      </c>
+      <c s="19" r="E104">
+        <f>INDIRECT(G104)
+</f>
+        <v/>
+      </c>
+      <c s="20" r="F104" t="s">
+        <v>344</v>
+      </c>
+      <c s="20" r="G104" t="s">
+        <v>345</v>
+      </c>
+      <c r="H104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c s="15" r="A105" t="s">
+        <v>346</v>
+      </c>
+      <c s="15" r="B105" t="s">
         <v>46</v>
       </c>
-      <c s="14" r="C28" t="s">
+      <c s="15" r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c s="16" r="D105">
+        <f>INDIRECT(F105)
+</f>
+        <v/>
+      </c>
+      <c s="16" r="E105">
+        <f>INDIRECT(G105)
+</f>
+        <v/>
+      </c>
+      <c s="17" r="F105" t="s">
+        <v>347</v>
+      </c>
+      <c s="17" r="G105" t="s">
+        <v>348</v>
+      </c>
+      <c r="H105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c s="18" r="A106" t="s">
+        <v>349</v>
+      </c>
+      <c s="18" r="B106" t="s">
         <v>46</v>
       </c>
-      <c s="15" r="D28">
-        <f>INDIRECT(F28)
+      <c s="18" r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c s="19" r="D106">
+        <f>INDIRECT(F106)
 </f>
         <v/>
       </c>
-      <c s="15" r="E28">
-        <f>INDIRECT(G28)
+      <c s="19" r="E106">
+        <f>INDIRECT(G106)
 </f>
         <v/>
       </c>
-      <c s="16" r="F28" t="s">
-        <v>100</v>
-      </c>
-      <c s="16" r="G28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c s="11" r="A29" t="s">
-        <v>102</v>
-      </c>
-      <c s="11" r="B29" t="s">
+      <c s="20" r="F106" t="s">
+        <v>350</v>
+      </c>
+      <c s="20" r="G106" t="s">
+        <v>351</v>
+      </c>
+      <c r="H106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c s="15" r="A107" t="s">
+        <v>352</v>
+      </c>
+      <c s="15" r="B107" t="s">
         <v>46</v>
       </c>
-      <c s="11" r="C29" t="s">
-        <v>46</v>
-      </c>
-      <c s="12" r="D29">
-        <f>INDIRECT(F29)
+      <c s="15" r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c s="16" r="D107">
+        <f>INDIRECT(F107)
 </f>
         <v/>
       </c>
-      <c s="12" r="E29">
-        <f>INDIRECT(G29)
+      <c s="16" r="E107">
+        <f>INDIRECT(G107)
 </f>
         <v/>
       </c>
-      <c s="13" r="F29" t="s">
-        <v>103</v>
-      </c>
-      <c s="13" r="G29" t="s">
-        <v>104</v>
-      </c>
-      <c r="H29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c s="14" r="A30" t="s">
-        <v>105</v>
-      </c>
-      <c s="14" r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c s="14" r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c s="15" r="D30">
-        <f>INDIRECT(F30)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E30">
-        <f>INDIRECT(G30)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F30" t="s">
-        <v>106</v>
-      </c>
-      <c s="16" r="G30" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c s="11" r="A31" t="s">
-        <v>108</v>
-      </c>
-      <c s="11" r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c s="11" r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c s="12" r="D31">
-        <f>INDIRECT(F31)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E31">
-        <f>INDIRECT(G31)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F31" t="s">
-        <v>109</v>
-      </c>
-      <c s="13" r="G31" t="s">
-        <v>110</v>
-      </c>
-      <c r="H31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c s="14" r="A32" t="s">
-        <v>111</v>
-      </c>
-      <c s="14" r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c s="14" r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c s="15" r="D32">
-        <f>INDIRECT(F32)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E32">
-        <f>INDIRECT(G32)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F32" t="s">
-        <v>112</v>
-      </c>
-      <c s="16" r="G32" t="s">
-        <v>113</v>
-      </c>
-      <c r="H32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c s="11" r="A33" t="s">
-        <v>114</v>
-      </c>
-      <c s="11" r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c s="11" r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c s="12" r="D33">
-        <f>INDIRECT(F33)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E33">
-        <f>INDIRECT(G33)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F33" t="s">
-        <v>115</v>
-      </c>
-      <c s="13" r="G33" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c s="14" r="A34" t="s">
-        <v>117</v>
-      </c>
-      <c s="14" r="B34" t="s">
-        <v>118</v>
-      </c>
-      <c s="14" r="C34" t="s">
-        <v>119</v>
-      </c>
-      <c s="15" r="D34">
-        <f>INDIRECT(F34)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E34">
-        <f>INDIRECT(G34)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F34" t="s">
-        <v>120</v>
-      </c>
-      <c s="16" r="G34" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c s="11" r="A35" t="s">
-        <v>122</v>
-      </c>
-      <c s="11" r="B35" t="s">
-        <v>118</v>
-      </c>
-      <c s="11" r="C35" t="s">
-        <v>119</v>
-      </c>
-      <c s="12" r="D35">
-        <f>INDIRECT(F35)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E35">
-        <f>INDIRECT(G35)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F35" t="s">
-        <v>123</v>
-      </c>
-      <c s="13" r="G35" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c s="14" r="A36" t="s">
-        <v>125</v>
-      </c>
-      <c s="14" r="B36" t="s">
-        <v>118</v>
-      </c>
-      <c s="14" r="C36" t="s">
-        <v>119</v>
-      </c>
-      <c s="15" r="D36">
-        <f>INDIRECT(F36)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E36">
-        <f>INDIRECT(G36)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F36" t="s">
-        <v>126</v>
-      </c>
-      <c s="16" r="G36" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c s="11" r="A37" t="s">
-        <v>128</v>
-      </c>
-      <c s="11" r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c s="11" r="C37" t="s">
-        <v>129</v>
-      </c>
-      <c s="12" r="D37">
-        <f>INDIRECT(F37)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E37">
-        <f>INDIRECT(G37)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F37" t="s">
-        <v>130</v>
-      </c>
-      <c s="13" r="G37" t="s">
-        <v>131</v>
-      </c>
-      <c r="H37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c s="14" r="A38" t="s">
-        <v>132</v>
-      </c>
-      <c s="14" r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c s="14" r="C38" t="s">
-        <v>129</v>
-      </c>
-      <c s="15" r="D38">
-        <f>INDIRECT(F38)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E38">
-        <f>INDIRECT(G38)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F38" t="s">
-        <v>133</v>
-      </c>
-      <c s="16" r="G38" t="s">
-        <v>134</v>
-      </c>
-      <c r="H38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c s="11" r="A39" t="s">
-        <v>135</v>
-      </c>
-      <c s="11" r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c s="11" r="C39" t="s">
-        <v>129</v>
-      </c>
-      <c s="12" r="D39">
-        <f>INDIRECT(F39)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E39">
-        <f>INDIRECT(G39)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F39" t="s">
-        <v>136</v>
-      </c>
-      <c s="13" r="G39" t="s">
-        <v>137</v>
-      </c>
-      <c r="H39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c s="14" r="A40" t="s">
-        <v>138</v>
-      </c>
-      <c s="14" r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c s="14" r="C40" t="s">
-        <v>129</v>
-      </c>
-      <c s="15" r="D40">
-        <f>INDIRECT(F40)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E40">
-        <f>INDIRECT(G40)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F40" t="s">
-        <v>139</v>
-      </c>
-      <c s="16" r="G40" t="s">
-        <v>140</v>
-      </c>
-      <c r="H40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c s="11" r="A41" t="s">
-        <v>141</v>
-      </c>
-      <c s="11" r="B41" t="s">
-        <v>142</v>
-      </c>
-      <c s="11" r="C41" t="s">
-        <v>143</v>
-      </c>
-      <c s="12" r="D41">
-        <f>INDIRECT(F41)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E41">
-        <f>INDIRECT(G41)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F41" t="s">
-        <v>144</v>
-      </c>
-      <c s="13" r="G41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c s="14" r="A42" t="s">
-        <v>146</v>
-      </c>
-      <c s="14" r="B42" t="s">
-        <v>142</v>
-      </c>
-      <c s="14" r="C42" t="s">
-        <v>143</v>
-      </c>
-      <c s="15" r="D42">
-        <f>INDIRECT(F42)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E42">
-        <f>INDIRECT(G42)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F42" t="s">
-        <v>147</v>
-      </c>
-      <c s="16" r="G42" t="s">
-        <v>148</v>
-      </c>
-      <c r="H42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c s="11" r="A43" t="s">
-        <v>149</v>
-      </c>
-      <c s="11" r="B43" t="s">
-        <v>142</v>
-      </c>
-      <c s="11" r="C43" t="s">
-        <v>143</v>
-      </c>
-      <c s="12" r="D43">
-        <f>INDIRECT(F43)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E43">
-        <f>INDIRECT(G43)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F43" t="s">
-        <v>150</v>
-      </c>
-      <c s="13" r="G43" t="s">
-        <v>151</v>
-      </c>
-      <c r="H43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c s="14" r="A44" t="s">
-        <v>152</v>
-      </c>
-      <c s="14" r="B44" t="s">
-        <v>153</v>
-      </c>
-      <c s="14" r="C44" t="s">
-        <v>154</v>
-      </c>
-      <c s="15" r="D44">
-        <f>INDIRECT(F44)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E44">
-        <f>INDIRECT(G44)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F44" t="s">
-        <v>155</v>
-      </c>
-      <c s="16" r="G44" t="s">
-        <v>156</v>
-      </c>
-      <c r="H44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c s="11" r="A45" t="s">
-        <v>157</v>
-      </c>
-      <c s="11" r="B45" t="s">
-        <v>153</v>
-      </c>
-      <c s="11" r="C45" t="s">
-        <v>154</v>
-      </c>
-      <c s="12" r="D45">
-        <f>INDIRECT(F45)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E45">
-        <f>INDIRECT(G45)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F45" t="s">
-        <v>158</v>
-      </c>
-      <c s="13" r="G45" t="s">
-        <v>159</v>
-      </c>
-      <c r="H45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c s="14" r="A46" t="s">
-        <v>160</v>
-      </c>
-      <c s="14" r="B46" t="s">
-        <v>153</v>
-      </c>
-      <c s="14" r="C46" t="s">
-        <v>154</v>
-      </c>
-      <c s="15" r="D46">
-        <f>INDIRECT(F46)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E46">
-        <f>INDIRECT(G46)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F46" t="s">
-        <v>161</v>
-      </c>
-      <c s="16" r="G46" t="s">
-        <v>162</v>
-      </c>
-      <c r="H46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c s="11" r="A47" t="s">
-        <v>163</v>
-      </c>
-      <c s="11" r="B47" t="s">
-        <v>78</v>
-      </c>
-      <c s="11" r="C47" t="s">
-        <v>164</v>
-      </c>
-      <c s="12" r="D47">
-        <f>INDIRECT(F47)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E47">
-        <f>INDIRECT(G47)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F47" t="s">
-        <v>165</v>
-      </c>
-      <c s="13" r="G47" t="s">
-        <v>166</v>
-      </c>
-      <c r="H47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c s="14" r="A48" t="s">
-        <v>167</v>
-      </c>
-      <c s="14" r="B48" t="s">
-        <v>78</v>
-      </c>
-      <c s="14" r="C48" t="s">
-        <v>164</v>
-      </c>
-      <c s="15" r="D48">
-        <f>INDIRECT(F48)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E48">
-        <f>INDIRECT(G48)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F48" t="s">
-        <v>168</v>
-      </c>
-      <c s="16" r="G48" t="s">
-        <v>169</v>
-      </c>
-      <c r="H48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c s="11" r="A49" t="s">
-        <v>170</v>
-      </c>
-      <c s="11" r="B49" t="s">
-        <v>78</v>
-      </c>
-      <c s="11" r="C49" t="s">
-        <v>164</v>
-      </c>
-      <c s="12" r="D49">
-        <f>INDIRECT(F49)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E49">
-        <f>INDIRECT(G49)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F49" t="s">
-        <v>171</v>
-      </c>
-      <c s="13" r="G49" t="s">
-        <v>172</v>
-      </c>
-      <c r="H49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c s="14" r="A50" t="s">
-        <v>173</v>
-      </c>
-      <c s="14" r="B50" t="s">
-        <v>174</v>
-      </c>
-      <c s="14" r="C50" t="s">
-        <v>175</v>
-      </c>
-      <c s="15" r="D50">
-        <f>INDIRECT(F50)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E50">
-        <f>INDIRECT(G50)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F50" t="s">
-        <v>176</v>
-      </c>
-      <c s="16" r="G50" t="s">
-        <v>177</v>
-      </c>
-      <c r="H50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c s="11" r="A51" t="s">
-        <v>178</v>
-      </c>
-      <c s="11" r="B51" t="s">
-        <v>174</v>
-      </c>
-      <c s="11" r="C51" t="s">
-        <v>175</v>
-      </c>
-      <c s="12" r="D51">
-        <f>INDIRECT(F51)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E51">
-        <f>INDIRECT(G51)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F51" t="s">
-        <v>179</v>
-      </c>
-      <c s="13" r="G51" t="s">
-        <v>180</v>
-      </c>
-      <c r="H51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c s="14" r="A52" t="s">
-        <v>181</v>
-      </c>
-      <c s="14" r="B52" t="s">
-        <v>174</v>
-      </c>
-      <c s="14" r="C52" t="s">
-        <v>175</v>
-      </c>
-      <c s="15" r="D52">
-        <f>INDIRECT(F52)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E52">
-        <f>INDIRECT(G52)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F52" t="s">
-        <v>182</v>
-      </c>
-      <c s="16" r="G52" t="s">
-        <v>183</v>
-      </c>
-      <c r="H52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c s="11" r="A53" t="s">
-        <v>184</v>
-      </c>
-      <c s="11" r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c s="11" r="C53" t="s">
-        <v>185</v>
-      </c>
-      <c s="12" r="D53">
-        <f>INDIRECT(F53)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E53">
-        <f>INDIRECT(G53)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F53" t="s">
-        <v>186</v>
-      </c>
-      <c s="13" r="G53" t="s">
-        <v>187</v>
-      </c>
-      <c r="H53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c s="14" r="A54" t="s">
-        <v>188</v>
-      </c>
-      <c s="14" r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c s="14" r="C54" t="s">
-        <v>185</v>
-      </c>
-      <c s="15" r="D54">
-        <f>INDIRECT(F54)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E54">
-        <f>INDIRECT(G54)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F54" t="s">
-        <v>189</v>
-      </c>
-      <c s="16" r="G54" t="s">
-        <v>190</v>
-      </c>
-      <c r="H54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c s="11" r="A55" t="s">
-        <v>191</v>
-      </c>
-      <c s="11" r="B55" t="s">
-        <v>8</v>
-      </c>
-      <c s="11" r="C55" t="s">
-        <v>185</v>
-      </c>
-      <c s="12" r="D55">
-        <f>INDIRECT(F55)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E55">
-        <f>INDIRECT(G55)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F55" t="s">
-        <v>192</v>
-      </c>
-      <c s="13" r="G55" t="s">
-        <v>193</v>
-      </c>
-      <c r="H55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c s="14" r="A56" t="s">
-        <v>194</v>
-      </c>
-      <c s="14" r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c s="14" r="C56" t="s">
-        <v>185</v>
-      </c>
-      <c s="15" r="D56">
-        <f>INDIRECT(F56)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E56">
-        <f>INDIRECT(G56)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F56" t="s">
-        <v>195</v>
-      </c>
-      <c s="16" r="G56" t="s">
-        <v>196</v>
-      </c>
-      <c r="H56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c s="11" r="A57" t="s">
-        <v>197</v>
-      </c>
-      <c s="11" r="B57" t="s">
-        <v>46</v>
-      </c>
-      <c s="11" r="C57" t="s">
-        <v>8</v>
-      </c>
-      <c s="12" r="D57">
-        <f>INDIRECT(F57)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E57">
-        <f>INDIRECT(G57)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F57" t="s">
-        <v>198</v>
-      </c>
-      <c s="13" r="G57" t="s">
-        <v>199</v>
-      </c>
-      <c r="H57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c s="14" r="A58" t="s">
-        <v>200</v>
-      </c>
-      <c s="14" r="B58" t="s">
-        <v>46</v>
-      </c>
-      <c s="14" r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c s="15" r="D58">
-        <f>INDIRECT(F58)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E58">
-        <f>INDIRECT(G58)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F58" t="s">
-        <v>201</v>
-      </c>
-      <c s="16" r="G58" t="s">
-        <v>202</v>
-      </c>
-      <c r="H58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c s="11" r="A59" t="s">
-        <v>203</v>
-      </c>
-      <c s="11" r="B59" t="s">
-        <v>46</v>
-      </c>
-      <c s="11" r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c s="12" r="D59">
-        <f>INDIRECT(F59)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E59">
-        <f>INDIRECT(G59)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F59" t="s">
-        <v>204</v>
-      </c>
-      <c s="13" r="G59" t="s">
-        <v>205</v>
-      </c>
-      <c r="H59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c s="14" r="A60" t="s">
-        <v>206</v>
-      </c>
-      <c s="14" r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c s="14" r="C60" t="s">
-        <v>185</v>
-      </c>
-      <c s="15" r="D60">
-        <f>INDIRECT(F60)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E60">
-        <f>INDIRECT(G60)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F60" t="s">
-        <v>207</v>
-      </c>
-      <c s="16" r="G60" t="s">
-        <v>208</v>
-      </c>
-      <c r="H60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c s="11" r="A61" t="s">
-        <v>209</v>
-      </c>
-      <c s="11" r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c s="11" r="C61" t="s">
-        <v>185</v>
-      </c>
-      <c s="12" r="D61">
-        <f>INDIRECT(F61)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E61">
-        <f>INDIRECT(G61)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F61" t="s">
-        <v>210</v>
-      </c>
-      <c s="13" r="G61" t="s">
-        <v>211</v>
-      </c>
-      <c r="H61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c s="14" r="A62" t="s">
-        <v>212</v>
-      </c>
-      <c s="14" r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c s="14" r="C62" t="s">
-        <v>185</v>
-      </c>
-      <c s="15" r="D62">
-        <f>INDIRECT(F62)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E62">
-        <f>INDIRECT(G62)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F62" t="s">
-        <v>213</v>
-      </c>
-      <c s="16" r="G62" t="s">
-        <v>214</v>
-      </c>
-      <c r="H62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c s="11" r="A63" t="s">
-        <v>215</v>
-      </c>
-      <c s="11" r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c s="11" r="C63" t="s">
-        <v>185</v>
-      </c>
-      <c s="12" r="D63">
-        <f>INDIRECT(F63)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E63">
-        <f>INDIRECT(G63)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F63" t="s">
-        <v>216</v>
-      </c>
-      <c s="13" r="G63" t="s">
-        <v>217</v>
-      </c>
-      <c r="H63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c s="14" r="A64" t="s">
-        <v>218</v>
-      </c>
-      <c s="14" r="B64" t="s">
-        <v>185</v>
-      </c>
-      <c s="14" r="C64" t="s">
-        <v>8</v>
-      </c>
-      <c s="15" r="D64">
-        <f>INDIRECT(F64)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E64">
-        <f>INDIRECT(G64)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F64" t="s">
-        <v>219</v>
-      </c>
-      <c s="16" r="G64" t="s">
-        <v>220</v>
-      </c>
-      <c r="H64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c s="11" r="A65" t="s">
-        <v>221</v>
-      </c>
-      <c s="11" r="B65" t="s">
-        <v>185</v>
-      </c>
-      <c s="11" r="C65" t="s">
-        <v>8</v>
-      </c>
-      <c s="12" r="D65">
-        <f>INDIRECT(F65)
-</f>
-        <v/>
-      </c>
-      <c s="12" r="E65">
-        <f>INDIRECT(G65)
-</f>
-        <v/>
-      </c>
-      <c s="13" r="F65" t="s">
-        <v>222</v>
-      </c>
-      <c s="13" r="G65" t="s">
-        <v>223</v>
-      </c>
-      <c r="H65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c s="14" r="A66" t="s">
-        <v>224</v>
-      </c>
-      <c s="14" r="B66" t="s">
-        <v>185</v>
-      </c>
-      <c s="14" r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c s="15" r="D66">
-        <f>INDIRECT(F66)
-</f>
-        <v/>
-      </c>
-      <c s="15" r="E66">
-        <f>INDIRECT(G66)
-</f>
-        <v/>
-      </c>
-      <c s="16" r="F66" t="s">
-        <v>225</v>
-      </c>
-      <c s="16" r="G66" t="s">
-        <v>226</v>
-      </c>
-      <c r="H66" t="s">
+      <c s="17" r="F107" t="s">
+        <v>353</v>
+      </c>
+      <c s="17" r="G107" t="s">
+        <v>354</v>
+      </c>
+      <c r="H107" t="s">
         <v>6</v>
       </c>
     </row>
